--- a/BP-Statistical-Review-2022-Gas.xlsx
+++ b/BP-Statistical-Review-2022-Gas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan\OneDrive\python\BP-statistical-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1ACFDD-E868-4A30-8170-341E983DE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C87112-02F0-4B60-8C05-B711CB1125F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{FB3AAEC2-067D-41FF-83E0-15EF1CB855D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="7" xr2:uid="{FB3AAEC2-067D-41FF-83E0-15EF1CB855D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Gas Reserves" sheetId="29" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="152">
   <si>
     <t>US</t>
   </si>
@@ -501,10 +501,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -35712,7 +35712,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="35" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>143</v>
@@ -46937,13 +46937,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282F63F9-CD35-42A5-8D5F-42ABB76548D7}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -46953,233 +46953,296 @@
     <col min="25" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12" customHeight="1">
+    <row r="1" spans="1:31">
       <c r="A1" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="69" t="s">
+      <c r="B1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="U1" s="69" t="s">
+      <c r="T1" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="V1" s="69" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="69" t="s">
+      <c r="Y1" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA1" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="75" t="s">
-        <v>109</v>
+      <c r="AE1" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="12" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>2</v>
+    <row r="2" spans="1:31">
+      <c r="A2" s="69" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="77">
         <v>2.0356829907565419E-3</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="80">
+        <v>0.14421206871359499</v>
+      </c>
+      <c r="D2" s="80">
+        <v>0</v>
+      </c>
+      <c r="E2" s="80">
+        <v>1.792981364713844</v>
+      </c>
+      <c r="F2" s="80">
+        <v>1.9284882101117029</v>
+      </c>
+      <c r="G2" s="80">
+        <v>0.78831814342074913</v>
+      </c>
+      <c r="H2" s="80">
+        <v>1.94249692332441</v>
+      </c>
+      <c r="I2" s="80">
+        <v>2.3246061468680561</v>
+      </c>
+      <c r="J2" s="80">
+        <v>15.45843424779541</v>
+      </c>
+      <c r="K2" s="80">
+        <v>3.1080057914400601</v>
+      </c>
+      <c r="L2" s="80">
+        <v>11.602543169700001</v>
+      </c>
+      <c r="M2" s="80">
+        <v>5.3366665979332568</v>
+      </c>
+      <c r="N2" s="80">
+        <v>12.4465509</v>
+      </c>
+      <c r="O2" s="80">
+        <v>21.78524347815112</v>
+      </c>
+      <c r="P2" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="80">
+        <v>0</v>
+      </c>
+      <c r="R2" s="80">
+        <v>1.5272443785125851</v>
+      </c>
+      <c r="S2" s="80">
+        <v>0</v>
+      </c>
+      <c r="T2" s="90">
+        <v>0</v>
+      </c>
+      <c r="U2" s="80">
+        <v>2.5890405553096909</v>
+      </c>
+      <c r="V2" s="80">
+        <v>3.3031659776736109</v>
+      </c>
+      <c r="W2" s="80">
+        <v>5.6351038000000004</v>
+      </c>
+      <c r="X2" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="80">
+        <v>8.2338019915600108E-2</v>
+      </c>
+      <c r="Z2" s="80">
+        <v>0.61552625167875419</v>
+      </c>
+      <c r="AA2" s="80">
+        <v>7.8409151743439969</v>
+      </c>
+      <c r="AB2" s="80">
+        <v>2.916754267420139</v>
+      </c>
+      <c r="AC2" s="80">
+        <v>0.69609644162869744</v>
+      </c>
+      <c r="AD2" s="90">
+        <v>0.4313237263177972</v>
+      </c>
+      <c r="AE2" s="93">
+        <v>104.2980913179638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24">
         <v>0.10624255005332769</v>
       </c>
-      <c r="D2" s="24">
-        <v>0</v>
-      </c>
-      <c r="E2" s="77">
-        <v>0</v>
-      </c>
-      <c r="F2" s="24">
-        <v>0</v>
-      </c>
-      <c r="G2" s="24">
-        <v>0</v>
-      </c>
-      <c r="H2" s="77">
-        <v>0</v>
-      </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
-        <v>0</v>
-      </c>
-      <c r="K2" s="24">
-        <v>0</v>
-      </c>
-      <c r="L2" s="77">
-        <v>0</v>
-      </c>
-      <c r="M2" s="24">
-        <v>0</v>
-      </c>
-      <c r="N2" s="24">
-        <v>0</v>
-      </c>
-      <c r="O2" s="24">
-        <v>0</v>
-      </c>
-      <c r="P2" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="25">
-        <v>0</v>
-      </c>
-      <c r="R2" s="24">
-        <v>0</v>
-      </c>
-      <c r="S2" s="24">
-        <v>0</v>
-      </c>
-      <c r="T2" s="24">
-        <v>0</v>
-      </c>
-      <c r="U2" s="24">
-        <v>0</v>
-      </c>
-      <c r="V2" s="24">
-        <v>0</v>
-      </c>
-      <c r="W2" s="77">
-        <v>0</v>
-      </c>
-      <c r="X2" s="78">
-        <v>0.1082782330440842</v>
+      <c r="C3" s="81">
+        <v>0</v>
+      </c>
+      <c r="D3" s="81">
+        <v>0</v>
+      </c>
+      <c r="E3" s="81">
+        <v>0</v>
+      </c>
+      <c r="F3" s="81">
+        <v>0</v>
+      </c>
+      <c r="G3" s="81">
+        <v>0</v>
+      </c>
+      <c r="H3" s="81">
+        <v>0</v>
+      </c>
+      <c r="I3" s="81">
+        <v>0</v>
+      </c>
+      <c r="J3" s="81">
+        <v>0.106577727158</v>
+      </c>
+      <c r="K3" s="81">
+        <v>0</v>
+      </c>
+      <c r="L3" s="81">
+        <v>0.1727562249</v>
+      </c>
+      <c r="M3" s="81">
+        <v>0</v>
+      </c>
+      <c r="N3" s="81">
+        <v>2.1537674999999998</v>
+      </c>
+      <c r="O3" s="81">
+        <v>0</v>
+      </c>
+      <c r="P3" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="81">
+        <v>0</v>
+      </c>
+      <c r="R3" s="81">
+        <v>0</v>
+      </c>
+      <c r="S3" s="81">
+        <v>0</v>
+      </c>
+      <c r="T3" s="91">
+        <v>0</v>
+      </c>
+      <c r="U3" s="81">
+        <v>0.31622992712949999</v>
+      </c>
+      <c r="V3" s="81">
+        <v>0</v>
+      </c>
+      <c r="W3" s="81">
+        <v>0.27075054999999998</v>
+      </c>
+      <c r="X3" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="81">
+        <v>0.86344938607594923</v>
+      </c>
+      <c r="AB3" s="81">
+        <v>0.22543215541139239</v>
+      </c>
+      <c r="AC3" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="94">
+        <v>4.2152060207281696</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="12" customHeight="1">
-      <c r="A3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="80">
-        <v>0.14421206871359499</v>
-      </c>
-      <c r="C3" s="81">
-        <v>0</v>
-      </c>
-      <c r="D3" s="81">
-        <v>0</v>
-      </c>
-      <c r="E3" s="80">
-        <v>0</v>
-      </c>
-      <c r="F3" s="81">
-        <v>0</v>
-      </c>
-      <c r="G3" s="81">
-        <v>0</v>
-      </c>
-      <c r="H3" s="80">
-        <v>0</v>
-      </c>
-      <c r="I3" s="81">
-        <v>0</v>
-      </c>
-      <c r="J3" s="81">
-        <v>0</v>
-      </c>
-      <c r="K3" s="81">
-        <v>0</v>
-      </c>
-      <c r="L3" s="80">
-        <v>0</v>
-      </c>
-      <c r="M3" s="81">
-        <v>0</v>
-      </c>
-      <c r="N3" s="81">
-        <v>0</v>
-      </c>
-      <c r="O3" s="81">
-        <v>0</v>
-      </c>
-      <c r="P3" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="80">
-        <v>0</v>
-      </c>
-      <c r="R3" s="81">
-        <v>0</v>
-      </c>
-      <c r="S3" s="24">
-        <v>0</v>
-      </c>
-      <c r="T3" s="24">
-        <v>0.40753351048510639</v>
-      </c>
-      <c r="U3" s="24">
-        <v>0</v>
-      </c>
-      <c r="V3" s="24">
-        <v>0</v>
-      </c>
-      <c r="W3" s="25">
-        <v>0</v>
-      </c>
-      <c r="X3" s="78">
-        <v>0.55174557919870137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="12" customHeight="1">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80">
+    <row r="4" spans="1:31">
+      <c r="A4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24">
         <v>0</v>
       </c>
       <c r="C4" s="81">
@@ -47188,2067 +47251,1990 @@
       <c r="D4" s="81">
         <v>0.64839878431900588</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="81">
+        <v>5.786816419763513E-2</v>
+      </c>
+      <c r="F4" s="81">
+        <v>0</v>
+      </c>
+      <c r="G4" s="81">
+        <v>1.0675746392945979</v>
+      </c>
+      <c r="H4" s="81">
+        <v>2.7549982139239289</v>
+      </c>
+      <c r="I4" s="81">
+        <v>0</v>
+      </c>
+      <c r="J4" s="81">
+        <v>0.42482724683233791</v>
+      </c>
+      <c r="K4" s="81">
+        <v>0.2856977010150028</v>
+      </c>
+      <c r="L4" s="81">
+        <v>1.2212422074</v>
+      </c>
+      <c r="M4" s="81">
+        <v>0.353865555081532</v>
+      </c>
+      <c r="N4" s="81">
+        <v>0.17670959999999999</v>
+      </c>
+      <c r="O4" s="81">
+        <v>1.674122013745911</v>
+      </c>
+      <c r="P4" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="81">
+        <v>0</v>
+      </c>
+      <c r="R4" s="81">
+        <v>0.37385899737450229</v>
+      </c>
+      <c r="S4" s="81">
+        <v>0</v>
+      </c>
+      <c r="T4" s="91">
+        <v>0</v>
+      </c>
+      <c r="U4" s="81">
+        <v>0.57553513035304049</v>
+      </c>
+      <c r="V4" s="81">
+        <v>0.15373162592905401</v>
+      </c>
+      <c r="W4" s="81">
+        <v>0.14736118749999999</v>
+      </c>
+      <c r="X4" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="81">
+        <v>9.4037173581081074E-2</v>
+      </c>
+      <c r="AA4" s="81">
+        <v>0.16066914527027021</v>
+      </c>
+      <c r="AB4" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="81">
+        <v>0.744687536875</v>
+      </c>
+      <c r="AD4" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="94">
+        <v>10.9151849226929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="77">
+        <v>0</v>
+      </c>
+      <c r="C5" s="80">
+        <v>0</v>
+      </c>
+      <c r="D5" s="80">
         <v>4.0776264000000001E-3</v>
       </c>
-      <c r="F4" s="81">
-        <v>0</v>
-      </c>
-      <c r="G4" s="81">
-        <v>0</v>
-      </c>
-      <c r="H4" s="80">
-        <v>0</v>
-      </c>
-      <c r="I4" s="81">
-        <v>0</v>
-      </c>
-      <c r="J4" s="81">
-        <v>0</v>
-      </c>
-      <c r="K4" s="81">
-        <v>0</v>
-      </c>
-      <c r="L4" s="80">
-        <v>0</v>
-      </c>
-      <c r="M4" s="81">
-        <v>0</v>
-      </c>
-      <c r="N4" s="81">
-        <v>0</v>
-      </c>
-      <c r="O4" s="81">
-        <v>0</v>
-      </c>
-      <c r="P4" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="80">
-        <v>0</v>
-      </c>
-      <c r="R4" s="81">
-        <v>0</v>
-      </c>
-      <c r="S4" s="24">
-        <v>0</v>
-      </c>
-      <c r="T4" s="24">
-        <v>0</v>
-      </c>
-      <c r="U4" s="24">
-        <v>0</v>
-      </c>
-      <c r="V4" s="24">
-        <v>0</v>
-      </c>
-      <c r="W4" s="25">
-        <v>0</v>
-      </c>
-      <c r="X4" s="78">
-        <v>0.65247641071900586</v>
+      <c r="E5" s="80">
+        <v>0</v>
+      </c>
+      <c r="F5" s="80">
+        <v>0</v>
+      </c>
+      <c r="G5" s="80">
+        <v>0</v>
+      </c>
+      <c r="H5" s="80">
+        <v>3.4546556999999999E-2</v>
+      </c>
+      <c r="I5" s="80">
+        <v>0</v>
+      </c>
+      <c r="J5" s="80">
+        <v>0</v>
+      </c>
+      <c r="K5" s="80">
+        <v>0</v>
+      </c>
+      <c r="L5" s="80">
+        <v>0</v>
+      </c>
+      <c r="M5" s="80">
+        <v>0</v>
+      </c>
+      <c r="N5" s="80">
+        <v>0</v>
+      </c>
+      <c r="O5" s="80">
+        <v>0</v>
+      </c>
+      <c r="P5" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="80">
+        <v>0</v>
+      </c>
+      <c r="R5" s="80">
+        <v>0</v>
+      </c>
+      <c r="S5" s="80">
+        <v>0</v>
+      </c>
+      <c r="T5" s="90">
+        <v>0</v>
+      </c>
+      <c r="U5" s="80">
+        <v>0</v>
+      </c>
+      <c r="V5" s="80">
+        <v>0</v>
+      </c>
+      <c r="W5" s="80">
+        <v>0</v>
+      </c>
+      <c r="X5" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="80">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="80">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="90">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="93">
+        <v>3.8624183399999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="12" customHeight="1">
-      <c r="A5" s="84" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="80">
-        <v>1.792981364713844</v>
-      </c>
-      <c r="C5" s="81">
-        <v>0</v>
-      </c>
-      <c r="D5" s="81">
-        <v>5.786816419763513E-2</v>
-      </c>
-      <c r="E5" s="80">
-        <v>0</v>
-      </c>
-      <c r="F5" s="81">
+    <row r="6" spans="1:31">
+      <c r="A6" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0</v>
+      </c>
+      <c r="C6" s="81">
+        <v>0</v>
+      </c>
+      <c r="D6" s="81">
+        <v>0</v>
+      </c>
+      <c r="E6" s="81">
         <v>8.9315696456730764E-2</v>
       </c>
-      <c r="G5" s="81">
-        <v>0</v>
-      </c>
-      <c r="H5" s="80">
-        <v>0</v>
-      </c>
-      <c r="I5" s="81">
-        <v>0</v>
-      </c>
-      <c r="J5" s="81">
+      <c r="F6" s="81">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81">
+        <v>0</v>
+      </c>
+      <c r="H6" s="81">
+        <v>0</v>
+      </c>
+      <c r="I6" s="81">
+        <v>0.14482820442019231</v>
+      </c>
+      <c r="J6" s="81">
+        <v>1.2530143648240919</v>
+      </c>
+      <c r="K6" s="81">
+        <v>8.5953237094709894E-2</v>
+      </c>
+      <c r="L6" s="81">
+        <v>0.14011137269999999</v>
+      </c>
+      <c r="M6" s="81">
+        <v>0</v>
+      </c>
+      <c r="N6" s="81">
+        <v>0.24203069999999999</v>
+      </c>
+      <c r="O6" s="81">
+        <v>1.790981259874342</v>
+      </c>
+      <c r="P6" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="81">
+        <v>0</v>
+      </c>
+      <c r="R6" s="81">
+        <v>0</v>
+      </c>
+      <c r="S6" s="81">
+        <v>0</v>
+      </c>
+      <c r="T6" s="91">
+        <v>0</v>
+      </c>
+      <c r="U6" s="81">
+        <v>0</v>
+      </c>
+      <c r="V6" s="81">
+        <v>0</v>
+      </c>
+      <c r="W6" s="81">
+        <v>0</v>
+      </c>
+      <c r="X6" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="81">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="94">
+        <v>3.7462348353700672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0</v>
+      </c>
+      <c r="C7" s="81">
+        <v>0</v>
+      </c>
+      <c r="D7" s="81">
+        <v>0</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0</v>
+      </c>
+      <c r="F7" s="81">
+        <v>7.0788554099999998E-2</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0</v>
+      </c>
+      <c r="H7" s="81">
+        <v>0.23567536259999999</v>
+      </c>
+      <c r="I7" s="81">
+        <v>9.5866201799999995E-2</v>
+      </c>
+      <c r="J7" s="81">
+        <v>0.13566980880000001</v>
+      </c>
+      <c r="K7" s="81">
+        <v>0.90414106070799993</v>
+      </c>
+      <c r="L7" s="81">
+        <v>2.7823768216000001E-2</v>
+      </c>
+      <c r="M7" s="81">
+        <v>0.19522</v>
+      </c>
+      <c r="N7" s="81">
+        <v>8.2539999999999988E-2</v>
+      </c>
+      <c r="O7" s="81">
+        <v>0.86739920495199996</v>
+      </c>
+      <c r="P7" s="81">
+        <v>5.6637522900000001E-2</v>
+      </c>
+      <c r="Q7" s="81">
+        <v>0</v>
+      </c>
+      <c r="R7" s="81">
+        <v>0.19906745549999999</v>
+      </c>
+      <c r="S7" s="81">
+        <v>0</v>
+      </c>
+      <c r="T7" s="91">
+        <v>0</v>
+      </c>
+      <c r="U7" s="81">
+        <v>0.21708150900000001</v>
+      </c>
+      <c r="V7" s="81">
+        <v>0.38447061279999989</v>
+      </c>
+      <c r="W7" s="81">
+        <v>0</v>
+      </c>
+      <c r="X7" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="81">
+        <v>1.1832247799999999E-2</v>
+      </c>
+      <c r="AA7" s="81">
+        <v>0.1892624637982582</v>
+      </c>
+      <c r="AB7" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="81">
+        <v>0.1023126123135653</v>
+      </c>
+      <c r="AD7" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="94">
+        <v>3.7757883852878238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="77">
+        <v>0</v>
+      </c>
+      <c r="C8" s="80">
+        <v>0</v>
+      </c>
+      <c r="D8" s="80">
+        <v>0</v>
+      </c>
+      <c r="E8" s="80">
+        <v>0</v>
+      </c>
+      <c r="F8" s="80">
+        <v>0</v>
+      </c>
+      <c r="G8" s="80">
+        <v>0</v>
+      </c>
+      <c r="H8" s="80">
+        <v>0</v>
+      </c>
+      <c r="I8" s="80">
+        <v>2.9043972196360759</v>
+      </c>
+      <c r="J8" s="80">
+        <v>7.4312492102088603</v>
+      </c>
+      <c r="K8" s="80">
+        <v>0</v>
+      </c>
+      <c r="L8" s="80">
+        <v>5.0418929079000003</v>
+      </c>
+      <c r="M8" s="80">
+        <v>0.31443435073236642</v>
+      </c>
+      <c r="N8" s="80">
+        <v>0.47604059999999998</v>
+      </c>
+      <c r="O8" s="80">
+        <v>3.4097582530601258</v>
+      </c>
+      <c r="P8" s="80">
+        <v>3.3607064797468347E-2</v>
+      </c>
+      <c r="Q8" s="80">
+        <v>0</v>
+      </c>
+      <c r="R8" s="80">
+        <v>0</v>
+      </c>
+      <c r="S8" s="80">
+        <v>0</v>
+      </c>
+      <c r="T8" s="90">
+        <v>0</v>
+      </c>
+      <c r="U8" s="80">
+        <v>6.1138098465787056</v>
+      </c>
+      <c r="V8" s="80">
+        <v>0.58313551506329109</v>
+      </c>
+      <c r="W8" s="80">
+        <v>9.2430010750000005</v>
+      </c>
+      <c r="X8" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="80">
+        <v>9.3316498683544316E-2</v>
+      </c>
+      <c r="AA8" s="80">
+        <v>2.6881878708860758</v>
+      </c>
+      <c r="AB8" s="80">
+        <v>1.497577403765822</v>
+      </c>
+      <c r="AC8" s="80">
+        <v>9.4034710028481017E-2</v>
+      </c>
+      <c r="AD8" s="90">
+        <v>0.2519543272504266</v>
+      </c>
+      <c r="AE8" s="93">
+        <v>40.17639685359125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="24">
+        <v>0</v>
+      </c>
+      <c r="C9" s="81">
+        <v>0</v>
+      </c>
+      <c r="D9" s="81">
+        <v>0</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0</v>
+      </c>
+      <c r="F9" s="81">
+        <v>0</v>
+      </c>
+      <c r="G9" s="81">
+        <v>0</v>
+      </c>
+      <c r="H9" s="81">
+        <v>0.18275086397859791</v>
+      </c>
+      <c r="I9" s="81">
+        <v>0</v>
+      </c>
+      <c r="J9" s="81">
+        <v>0</v>
+      </c>
+      <c r="K9" s="81">
+        <v>0.1086467171956769</v>
+      </c>
+      <c r="L9" s="81">
+        <v>0.53065989989999995</v>
+      </c>
+      <c r="M9" s="81">
+        <v>0.1113512514220706</v>
+      </c>
+      <c r="N9" s="81">
+        <v>2.4374699999999999E-2</v>
+      </c>
+      <c r="O9" s="81">
+        <v>0</v>
+      </c>
+      <c r="P9" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="81">
+        <v>0</v>
+      </c>
+      <c r="R9" s="81">
+        <v>0.1919031689597554</v>
+      </c>
+      <c r="S9" s="81">
+        <v>0</v>
+      </c>
+      <c r="T9" s="91">
+        <v>0</v>
+      </c>
+      <c r="U9" s="81">
+        <v>0.8588404900060439</v>
+      </c>
+      <c r="V9" s="81">
+        <v>1.267800652308642</v>
+      </c>
+      <c r="W9" s="81">
+        <v>3.435579175</v>
+      </c>
+      <c r="X9" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="81">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="81">
+        <v>6.9280140259049858</v>
+      </c>
+      <c r="AB9" s="81">
+        <v>0.45026574114506168</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>0.86420369171759248</v>
+      </c>
+      <c r="AD9" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="94">
+        <v>14.954390377538431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="24">
+        <v>0</v>
+      </c>
+      <c r="C10" s="81">
+        <v>0</v>
+      </c>
+      <c r="D10" s="81">
+        <v>0</v>
+      </c>
+      <c r="E10" s="81">
         <v>5.8606576392088612E-2</v>
       </c>
-      <c r="K5" s="81">
-        <v>0</v>
-      </c>
-      <c r="L5" s="80">
-        <v>0</v>
-      </c>
-      <c r="M5" s="81">
-        <v>8.7954678371848755E-2</v>
-      </c>
-      <c r="N5" s="81">
-        <v>0</v>
-      </c>
-      <c r="O5" s="81">
-        <v>0</v>
-      </c>
-      <c r="P5" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="80">
-        <v>0.1756836649317407</v>
-      </c>
-      <c r="R5" s="81">
-        <v>0</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0</v>
-      </c>
-      <c r="T5" s="24">
-        <v>0</v>
-      </c>
-      <c r="U5" s="24">
-        <v>0</v>
-      </c>
-      <c r="V5" s="24">
-        <v>0</v>
-      </c>
-      <c r="W5" s="25">
-        <v>0</v>
-      </c>
-      <c r="X5" s="78">
-        <v>2.262410145063888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="80">
-        <v>1.9284882101117029</v>
-      </c>
-      <c r="C6" s="81">
-        <v>0</v>
-      </c>
-      <c r="D6" s="81">
-        <v>0</v>
-      </c>
-      <c r="E6" s="80">
-        <v>0</v>
-      </c>
-      <c r="F6" s="81">
-        <v>0</v>
-      </c>
-      <c r="G6" s="81">
-        <v>7.0788554099999998E-2</v>
-      </c>
-      <c r="H6" s="80">
-        <v>0</v>
-      </c>
-      <c r="I6" s="81">
-        <v>0</v>
-      </c>
-      <c r="J6" s="81">
+      <c r="F10" s="81">
         <v>0.1274193708759955</v>
       </c>
-      <c r="K6" s="81">
-        <v>0</v>
-      </c>
-      <c r="L6" s="80">
-        <v>0</v>
-      </c>
-      <c r="M6" s="81">
-        <v>0</v>
-      </c>
-      <c r="N6" s="81">
-        <v>0</v>
-      </c>
-      <c r="O6" s="81">
-        <v>0</v>
-      </c>
-      <c r="P6" s="81">
-        <v>5.3842603037658213E-2</v>
-      </c>
-      <c r="Q6" s="80">
-        <v>0.12581966904605271</v>
-      </c>
-      <c r="R6" s="81">
-        <v>0</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0</v>
-      </c>
-      <c r="T6" s="24">
-        <v>0</v>
-      </c>
-      <c r="U6" s="24">
-        <v>0</v>
-      </c>
-      <c r="V6" s="24">
-        <v>0</v>
-      </c>
-      <c r="W6" s="25">
-        <v>0</v>
-      </c>
-      <c r="X6" s="78">
-        <v>2.3063584071714089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="12" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="80">
-        <v>0.78831814342074913</v>
-      </c>
-      <c r="C7" s="81">
-        <v>0</v>
-      </c>
-      <c r="D7" s="81">
-        <v>1.0675746392945979</v>
-      </c>
-      <c r="E7" s="80">
-        <v>0</v>
-      </c>
-      <c r="F7" s="81">
-        <v>0</v>
-      </c>
-      <c r="G7" s="81">
-        <v>0</v>
-      </c>
-      <c r="H7" s="80">
-        <v>0</v>
-      </c>
-      <c r="I7" s="81">
-        <v>0</v>
-      </c>
-      <c r="J7" s="81">
-        <v>0</v>
-      </c>
-      <c r="K7" s="81">
-        <v>0</v>
-      </c>
-      <c r="L7" s="80">
-        <v>0</v>
-      </c>
-      <c r="M7" s="81">
-        <v>0</v>
-      </c>
-      <c r="N7" s="81">
-        <v>0</v>
-      </c>
-      <c r="O7" s="81">
-        <v>0</v>
-      </c>
-      <c r="P7" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="80">
-        <v>1.228848006700215</v>
-      </c>
-      <c r="R7" s="81">
-        <v>0.26508210474805127</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0</v>
-      </c>
-      <c r="T7" s="24">
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
-        <v>0</v>
-      </c>
-      <c r="V7" s="24">
-        <v>0</v>
-      </c>
-      <c r="W7" s="25">
-        <v>0</v>
-      </c>
-      <c r="X7" s="78">
-        <v>3.349822894163613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="12" customHeight="1">
-      <c r="A8" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="80">
-        <v>1.94249692332441</v>
-      </c>
-      <c r="C8" s="81">
-        <v>0</v>
-      </c>
-      <c r="D8" s="81">
-        <v>2.7549982139239289</v>
-      </c>
-      <c r="E8" s="80">
-        <v>3.4546556999999999E-2</v>
-      </c>
-      <c r="F8" s="81">
-        <v>0</v>
-      </c>
-      <c r="G8" s="81">
-        <v>0.23567536259999999</v>
-      </c>
-      <c r="H8" s="80">
-        <v>0</v>
-      </c>
-      <c r="I8" s="81">
-        <v>0.18275086397859791</v>
-      </c>
-      <c r="J8" s="81">
-        <v>0</v>
-      </c>
-      <c r="K8" s="81">
-        <v>0</v>
-      </c>
-      <c r="L8" s="80">
-        <v>0</v>
-      </c>
-      <c r="M8" s="81">
-        <v>0</v>
-      </c>
-      <c r="N8" s="81">
-        <v>0</v>
-      </c>
-      <c r="O8" s="81">
-        <v>0</v>
-      </c>
-      <c r="P8" s="81">
-        <v>0.39884859065379691</v>
-      </c>
-      <c r="Q8" s="80">
-        <v>0</v>
-      </c>
-      <c r="R8" s="81">
-        <v>0</v>
-      </c>
-      <c r="S8" s="24">
-        <v>0</v>
-      </c>
-      <c r="T8" s="24">
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
-        <v>0</v>
-      </c>
-      <c r="V8" s="24">
-        <v>0</v>
-      </c>
-      <c r="W8" s="25">
-        <v>0</v>
-      </c>
-      <c r="X8" s="78">
-        <v>5.5493165114807326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="12" customHeight="1">
-      <c r="A9" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="80">
-        <v>2.3246061468680561</v>
-      </c>
-      <c r="C9" s="81">
-        <v>0</v>
-      </c>
-      <c r="D9" s="81">
-        <v>0</v>
-      </c>
-      <c r="E9" s="80">
-        <v>0</v>
-      </c>
-      <c r="F9" s="81">
-        <v>0.14482820442019231</v>
-      </c>
-      <c r="G9" s="81">
-        <v>9.5866201799999995E-2</v>
-      </c>
-      <c r="H9" s="80">
-        <v>2.9043972196360759</v>
-      </c>
-      <c r="I9" s="81">
-        <v>0</v>
-      </c>
-      <c r="J9" s="81">
+      <c r="G10" s="81">
+        <v>0</v>
+      </c>
+      <c r="H10" s="81">
+        <v>0</v>
+      </c>
+      <c r="I10" s="81">
         <v>6.7825805534113934</v>
-      </c>
-      <c r="K9" s="81">
-        <v>0</v>
-      </c>
-      <c r="L9" s="80">
-        <v>0</v>
-      </c>
-      <c r="M9" s="81">
-        <v>8.6577399744027228E-2</v>
-      </c>
-      <c r="N9" s="81">
-        <v>0</v>
-      </c>
-      <c r="O9" s="81">
-        <v>8.9526850666666657E-2</v>
-      </c>
-      <c r="P9" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="80">
-        <v>0</v>
-      </c>
-      <c r="R9" s="81">
-        <v>0</v>
-      </c>
-      <c r="S9" s="24">
-        <v>0</v>
-      </c>
-      <c r="T9" s="24">
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
-        <v>0</v>
-      </c>
-      <c r="V9" s="24">
-        <v>0</v>
-      </c>
-      <c r="W9" s="25">
-        <v>0</v>
-      </c>
-      <c r="X9" s="78">
-        <v>12.42838257654641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="12" customHeight="1">
-      <c r="A10" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="80">
-        <v>15.45843424779541</v>
-      </c>
-      <c r="C10" s="81">
-        <v>0.106577727158</v>
-      </c>
-      <c r="D10" s="81">
-        <v>0.42482724683233791</v>
-      </c>
-      <c r="E10" s="80">
-        <v>0</v>
-      </c>
-      <c r="F10" s="81">
-        <v>1.2530143648240919</v>
-      </c>
-      <c r="G10" s="81">
-        <v>0.13566980880000001</v>
-      </c>
-      <c r="H10" s="80">
-        <v>7.4312492102088603</v>
-      </c>
-      <c r="I10" s="81">
-        <v>0</v>
       </c>
       <c r="J10" s="81">
         <v>2.1851569098405061</v>
       </c>
       <c r="K10" s="81">
-        <v>0</v>
-      </c>
-      <c r="L10" s="80">
-        <v>0</v>
+        <v>7.1352091863629736</v>
+      </c>
+      <c r="L10" s="81">
+        <v>1.3886235855</v>
       </c>
       <c r="M10" s="81">
+        <v>8.804991941600307E-2</v>
+      </c>
+      <c r="N10" s="81">
+        <v>7.964637087599546</v>
+      </c>
+      <c r="O10" s="81">
+        <v>2.5008905899064988</v>
+      </c>
+      <c r="P10" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="81">
+        <v>3.8781047554340891</v>
+      </c>
+      <c r="S10" s="81">
+        <v>0.91115787038609231</v>
+      </c>
+      <c r="T10" s="91">
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <v>24.789097540003169</v>
+      </c>
+      <c r="V10" s="24">
+        <v>14.666969184398731</v>
+      </c>
+      <c r="W10" s="24">
+        <v>3.9288259750000001</v>
+      </c>
+      <c r="X10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <v>8.6281778601161392</v>
+      </c>
+      <c r="Z10" s="24">
+        <v>0.54983180019082267</v>
+      </c>
+      <c r="AA10" s="24">
+        <v>13.369065008765819</v>
+      </c>
+      <c r="AB10" s="24">
+        <v>7.1505235403069616</v>
+      </c>
+      <c r="AC10" s="24">
+        <v>3.1979763195667719</v>
+      </c>
+      <c r="AD10" s="26">
+        <v>4.7703134942389243</v>
+      </c>
+      <c r="AE10" s="83">
+        <v>114.0712171277125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="24">
+        <v>0</v>
+      </c>
+      <c r="C11" s="81">
+        <v>0</v>
+      </c>
+      <c r="D11" s="81">
+        <v>0</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0</v>
+      </c>
+      <c r="F11" s="81">
+        <v>0</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0</v>
+      </c>
+      <c r="H11" s="81">
+        <v>0</v>
+      </c>
+      <c r="I11" s="81">
+        <v>0</v>
+      </c>
+      <c r="J11" s="81">
+        <v>0</v>
+      </c>
+      <c r="K11" s="81">
+        <v>0</v>
+      </c>
+      <c r="L11" s="81">
+        <v>0</v>
+      </c>
+      <c r="M11" s="81">
+        <v>0</v>
+      </c>
+      <c r="N11" s="81">
+        <v>0</v>
+      </c>
+      <c r="O11" s="81">
+        <v>0</v>
+      </c>
+      <c r="P11" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>0</v>
+      </c>
+      <c r="R11" s="81">
+        <v>0.44273314071891329</v>
+      </c>
+      <c r="S11" s="81">
+        <v>0</v>
+      </c>
+      <c r="T11" s="91">
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <v>0.26527272495044768</v>
+      </c>
+      <c r="V11" s="24">
+        <v>3.8427525333174888</v>
+      </c>
+      <c r="W11" s="24">
+        <v>1.8184524500000001</v>
+      </c>
+      <c r="X11" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <v>0.19594330595256609</v>
+      </c>
+      <c r="Z11" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <v>0.56046276096465364</v>
+      </c>
+      <c r="AB11" s="24">
+        <v>0.26048917497127511</v>
+      </c>
+      <c r="AC11" s="24">
+        <v>0.19765418721798059</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="83">
+        <v>7.5837602780933251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="77">
+        <v>0</v>
+      </c>
+      <c r="C12" s="80">
+        <v>0</v>
+      </c>
+      <c r="D12" s="80">
+        <v>0</v>
+      </c>
+      <c r="E12" s="80">
+        <v>0</v>
+      </c>
+      <c r="F12" s="80">
+        <v>0</v>
+      </c>
+      <c r="G12" s="80">
+        <v>0</v>
+      </c>
+      <c r="H12" s="80">
+        <v>0</v>
+      </c>
+      <c r="I12" s="80">
+        <v>0</v>
+      </c>
+      <c r="J12" s="80">
+        <v>0</v>
+      </c>
+      <c r="K12" s="80">
+        <v>0</v>
+      </c>
+      <c r="L12" s="80">
+        <v>0</v>
+      </c>
+      <c r="M12" s="80">
+        <v>0</v>
+      </c>
+      <c r="N12" s="80">
+        <v>0</v>
+      </c>
+      <c r="O12" s="80">
+        <v>0</v>
+      </c>
+      <c r="P12" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="80">
+        <v>0</v>
+      </c>
+      <c r="S12" s="80">
+        <v>0</v>
+      </c>
+      <c r="T12" s="90">
+        <v>0</v>
+      </c>
+      <c r="U12" s="25">
+        <v>0</v>
+      </c>
+      <c r="V12" s="25">
+        <v>0</v>
+      </c>
+      <c r="W12" s="25">
+        <v>0</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0</v>
+      </c>
+      <c r="C13" s="81">
+        <v>0</v>
+      </c>
+      <c r="D13" s="81">
+        <v>0</v>
+      </c>
+      <c r="E13" s="81">
+        <v>8.7954678371848755E-2</v>
+      </c>
+      <c r="F13" s="81">
+        <v>0</v>
+      </c>
+      <c r="G13" s="81">
+        <v>0</v>
+      </c>
+      <c r="H13" s="81">
+        <v>0</v>
+      </c>
+      <c r="I13" s="81">
+        <v>8.6577399744027228E-2</v>
+      </c>
+      <c r="J13" s="81">
         <v>4.7641026000000002</v>
       </c>
-      <c r="N10" s="81">
-        <v>1.015623262360994</v>
-      </c>
-      <c r="O10" s="81">
-        <v>0.81953702370499992</v>
-      </c>
-      <c r="P10" s="81">
-        <v>1.320207592108861</v>
-      </c>
-      <c r="Q10" s="80">
-        <v>0.17976653128</v>
-      </c>
-      <c r="R10" s="81">
-        <v>0</v>
-      </c>
-      <c r="S10" s="24">
-        <v>0</v>
-      </c>
-      <c r="T10" s="24">
-        <v>0</v>
-      </c>
-      <c r="U10" s="24">
-        <v>0</v>
-      </c>
-      <c r="V10" s="24">
-        <v>0</v>
-      </c>
-      <c r="W10" s="25">
-        <v>0</v>
-      </c>
-      <c r="X10" s="78">
-        <v>35.094166524914058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="12" customHeight="1">
-      <c r="A11" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="80">
-        <v>3.1080057914400601</v>
-      </c>
-      <c r="C11" s="81">
-        <v>0</v>
-      </c>
-      <c r="D11" s="81">
-        <v>0.2856977010150028</v>
-      </c>
-      <c r="E11" s="80">
-        <v>0</v>
-      </c>
-      <c r="F11" s="81">
-        <v>8.5953237094709894E-2</v>
-      </c>
-      <c r="G11" s="81">
-        <v>0.90414106070799993</v>
-      </c>
-      <c r="H11" s="80">
-        <v>0</v>
-      </c>
-      <c r="I11" s="81">
-        <v>0.1086467171956769</v>
-      </c>
-      <c r="J11" s="81">
-        <v>7.1352091863629736</v>
-      </c>
-      <c r="K11" s="81">
-        <v>0</v>
-      </c>
-      <c r="L11" s="80">
-        <v>0</v>
-      </c>
-      <c r="M11" s="81">
+      <c r="K13" s="81">
         <v>1.5129935166176469</v>
       </c>
-      <c r="N11" s="81">
-        <v>0</v>
-      </c>
-      <c r="O11" s="81">
-        <v>0.55927896205009209</v>
-      </c>
-      <c r="P11" s="81">
-        <v>0.19506645478955689</v>
-      </c>
-      <c r="Q11" s="80">
-        <v>0.37061619213486841</v>
-      </c>
-      <c r="R11" s="81">
-        <v>0</v>
-      </c>
-      <c r="S11" s="24">
-        <v>0</v>
-      </c>
-      <c r="T11" s="24">
-        <v>0</v>
-      </c>
-      <c r="U11" s="24">
-        <v>0</v>
-      </c>
-      <c r="V11" s="24">
-        <v>0</v>
-      </c>
-      <c r="W11" s="25">
-        <v>0</v>
-      </c>
-      <c r="X11" s="78">
-        <v>14.265608819408589</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1">
-      <c r="A12" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="80">
-        <v>11.602543169700001</v>
-      </c>
-      <c r="C12" s="81">
-        <v>0.1727562249</v>
-      </c>
-      <c r="D12" s="81">
-        <v>1.2212422074</v>
-      </c>
-      <c r="E12" s="80">
-        <v>0</v>
-      </c>
-      <c r="F12" s="81">
-        <v>0.14011137269999999</v>
-      </c>
-      <c r="G12" s="81">
-        <v>2.7823768216000001E-2</v>
-      </c>
-      <c r="H12" s="80">
-        <v>5.0418929079000003</v>
-      </c>
-      <c r="I12" s="81">
-        <v>0.53065989989999995</v>
-      </c>
-      <c r="J12" s="81">
-        <v>1.3886235855</v>
-      </c>
-      <c r="K12" s="81">
-        <v>0</v>
-      </c>
-      <c r="L12" s="80">
-        <v>0</v>
-      </c>
-      <c r="M12" s="81">
+      <c r="L13" s="81">
         <v>0.40305536549999998</v>
-      </c>
-      <c r="N12" s="81">
-        <v>0.27922720140000001</v>
-      </c>
-      <c r="O12" s="81">
-        <v>1.3547522619000001</v>
-      </c>
-      <c r="P12" s="81">
-        <v>5.6515657473000003</v>
-      </c>
-      <c r="Q12" s="80">
-        <v>0.86973929280000006</v>
-      </c>
-      <c r="R12" s="81">
-        <v>5.2471367999999997E-3</v>
-      </c>
-      <c r="S12" s="24">
-        <v>0</v>
-      </c>
-      <c r="T12" s="24">
-        <v>1.38856599E-2</v>
-      </c>
-      <c r="U12" s="24">
-        <v>7.0591355999999996E-3</v>
-      </c>
-      <c r="V12" s="24">
-        <v>0</v>
-      </c>
-      <c r="W12" s="25">
-        <v>0.10376008142</v>
-      </c>
-      <c r="X12" s="78">
-        <v>28.813945018836002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1">
-      <c r="A13" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="80">
-        <v>5.3366665979332568</v>
-      </c>
-      <c r="C13" s="81">
-        <v>0</v>
-      </c>
-      <c r="D13" s="81">
-        <v>0.353865555081532</v>
-      </c>
-      <c r="E13" s="80">
-        <v>0</v>
-      </c>
-      <c r="F13" s="81">
-        <v>0</v>
-      </c>
-      <c r="G13" s="81">
-        <v>0.19522</v>
-      </c>
-      <c r="H13" s="80">
-        <v>0.31443435073236642</v>
-      </c>
-      <c r="I13" s="81">
-        <v>0.1113512514220706</v>
-      </c>
-      <c r="J13" s="81">
-        <v>8.804991941600307E-2</v>
-      </c>
-      <c r="K13" s="81">
-        <v>0</v>
-      </c>
-      <c r="L13" s="80">
-        <v>0</v>
       </c>
       <c r="M13" s="81">
         <v>5.3617102768297258</v>
       </c>
       <c r="N13" s="81">
+        <v>0.56243699999999996</v>
+      </c>
+      <c r="O13" s="81">
+        <v>0.67930381973530041</v>
+      </c>
+      <c r="P13" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>0</v>
+      </c>
+      <c r="R13" s="81">
+        <v>0.101872740365472</v>
+      </c>
+      <c r="S13" s="81">
+        <v>0</v>
+      </c>
+      <c r="T13" s="91">
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <v>9.2520797331932775E-2</v>
+      </c>
+      <c r="V13" s="24">
+        <v>0.2894480183823529</v>
+      </c>
+      <c r="W13" s="24">
+        <v>0.16964351250000001</v>
+      </c>
+      <c r="X13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <v>9.1222587132352942E-2</v>
+      </c>
+      <c r="Z13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24">
+        <v>8.6872963235294115E-2</v>
+      </c>
+      <c r="AB13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="26">
+        <v>9.2060635061148963E-2</v>
+      </c>
+      <c r="AE13" s="83">
+        <v>14.3817759108071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0</v>
+      </c>
+      <c r="C14" s="81">
+        <v>0</v>
+      </c>
+      <c r="D14" s="81">
+        <v>0</v>
+      </c>
+      <c r="E14" s="81">
+        <v>0</v>
+      </c>
+      <c r="F14" s="81">
+        <v>0</v>
+      </c>
+      <c r="G14" s="81">
+        <v>0</v>
+      </c>
+      <c r="H14" s="81">
+        <v>0</v>
+      </c>
+      <c r="I14" s="81">
+        <v>0</v>
+      </c>
+      <c r="J14" s="81">
+        <v>1.015623262360994</v>
+      </c>
+      <c r="K14" s="81">
+        <v>0</v>
+      </c>
+      <c r="L14" s="81">
+        <v>0.27922720140000001</v>
+      </c>
+      <c r="M14" s="81">
         <v>9.1257404493475955E-2</v>
-      </c>
-      <c r="O13" s="81">
-        <v>2.1846657565415231</v>
-      </c>
-      <c r="P13" s="81">
-        <v>0.84201530858930596</v>
-      </c>
-      <c r="Q13" s="80">
-        <v>8.9245164960182088E-2</v>
-      </c>
-      <c r="R13" s="81">
-        <v>0</v>
-      </c>
-      <c r="S13" s="24">
-        <v>0</v>
-      </c>
-      <c r="T13" s="24">
-        <v>8.9619444444444349E-2</v>
-      </c>
-      <c r="U13" s="24">
-        <v>0</v>
-      </c>
-      <c r="V13" s="24">
-        <v>0</v>
-      </c>
-      <c r="W13" s="25">
-        <v>0</v>
-      </c>
-      <c r="X13" s="78">
-        <v>15.058101030443879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="12" customHeight="1">
-      <c r="A14" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="80">
-        <v>12.4465509</v>
-      </c>
-      <c r="C14" s="81">
-        <v>2.1537674999999998</v>
-      </c>
-      <c r="D14" s="81">
-        <v>0.17670959999999999</v>
-      </c>
-      <c r="E14" s="80">
-        <v>0</v>
-      </c>
-      <c r="F14" s="81">
-        <v>0.24203069999999999</v>
-      </c>
-      <c r="G14" s="81">
-        <v>8.2539999999999988E-2</v>
-      </c>
-      <c r="H14" s="80">
-        <v>0.47604059999999998</v>
-      </c>
-      <c r="I14" s="81">
-        <v>2.4374699999999999E-2</v>
-      </c>
-      <c r="J14" s="81">
-        <v>7.964637087599546</v>
-      </c>
-      <c r="K14" s="81">
-        <v>0</v>
-      </c>
-      <c r="L14" s="80">
-        <v>0</v>
-      </c>
-      <c r="M14" s="81">
-        <v>0.56243699999999996</v>
       </c>
       <c r="N14" s="81">
         <v>0.6120738</v>
       </c>
       <c r="O14" s="81">
+        <v>0.91010173228179847</v>
+      </c>
+      <c r="P14" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="81">
+        <v>0</v>
+      </c>
+      <c r="R14" s="81">
+        <v>0</v>
+      </c>
+      <c r="S14" s="81">
+        <v>0</v>
+      </c>
+      <c r="T14" s="91">
+        <v>0</v>
+      </c>
+      <c r="U14" s="81">
+        <v>0</v>
+      </c>
+      <c r="V14" s="81">
+        <v>0.88059177790458942</v>
+      </c>
+      <c r="W14" s="81">
+        <v>0</v>
+      </c>
+      <c r="X14" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="81">
+        <v>9.1473353431188842E-2</v>
+      </c>
+      <c r="Z14" s="81">
+        <v>9.092095572548424E-2</v>
+      </c>
+      <c r="AA14" s="81">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="81">
+        <v>9.1473353431188842E-2</v>
+      </c>
+      <c r="AD14" s="91">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="94">
+        <v>4.0627428410287187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0</v>
+      </c>
+      <c r="C15" s="81">
+        <v>0</v>
+      </c>
+      <c r="D15" s="81">
+        <v>0</v>
+      </c>
+      <c r="E15" s="81">
+        <v>0</v>
+      </c>
+      <c r="F15" s="81">
+        <v>0</v>
+      </c>
+      <c r="G15" s="81">
+        <v>0</v>
+      </c>
+      <c r="H15" s="81">
+        <v>0</v>
+      </c>
+      <c r="I15" s="81">
+        <v>8.9526850666666657E-2</v>
+      </c>
+      <c r="J15" s="81">
+        <v>0.81953702370499992</v>
+      </c>
+      <c r="K15" s="81">
+        <v>0.55927896205009209</v>
+      </c>
+      <c r="L15" s="81">
+        <v>1.3547522619000001</v>
+      </c>
+      <c r="M15" s="81">
+        <v>2.1846657565415231</v>
+      </c>
+      <c r="N15" s="81">
         <v>0.10263600000000001</v>
-      </c>
-      <c r="P14" s="81">
-        <v>0.49684499999999998</v>
-      </c>
-      <c r="Q14" s="80">
-        <v>0</v>
-      </c>
-      <c r="R14" s="81">
-        <v>0</v>
-      </c>
-      <c r="S14" s="24">
-        <v>0</v>
-      </c>
-      <c r="T14" s="24">
-        <v>0</v>
-      </c>
-      <c r="U14" s="24">
-        <v>0</v>
-      </c>
-      <c r="V14" s="24">
-        <v>0</v>
-      </c>
-      <c r="W14" s="25">
-        <v>0</v>
-      </c>
-      <c r="X14" s="78">
-        <v>25.34064288759955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="12" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="80">
-        <v>21.78524347815112</v>
-      </c>
-      <c r="C15" s="81">
-        <v>0</v>
-      </c>
-      <c r="D15" s="81">
-        <v>1.674122013745911</v>
-      </c>
-      <c r="E15" s="80">
-        <v>0</v>
-      </c>
-      <c r="F15" s="81">
-        <v>1.790981259874342</v>
-      </c>
-      <c r="G15" s="81">
-        <v>0.86739920495199996</v>
-      </c>
-      <c r="H15" s="80">
-        <v>3.4097582530601258</v>
-      </c>
-      <c r="I15" s="81">
-        <v>0</v>
-      </c>
-      <c r="J15" s="81">
-        <v>2.5008905899064988</v>
-      </c>
-      <c r="K15" s="81">
-        <v>0</v>
-      </c>
-      <c r="L15" s="80">
-        <v>0</v>
-      </c>
-      <c r="M15" s="81">
-        <v>0.67930381973530041</v>
-      </c>
-      <c r="N15" s="81">
-        <v>0.91010173228179847</v>
       </c>
       <c r="O15" s="81">
         <v>1.373074923402583</v>
       </c>
       <c r="P15" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="81">
+        <v>0</v>
+      </c>
+      <c r="R15" s="81">
+        <v>0.18339776287683329</v>
+      </c>
+      <c r="S15" s="81">
+        <v>0</v>
+      </c>
+      <c r="T15" s="91">
+        <v>9.2057816262087533E-2</v>
+      </c>
+      <c r="U15" s="81">
+        <v>0.44198843108966118</v>
+      </c>
+      <c r="V15" s="81">
+        <v>0.23654304182499999</v>
+      </c>
+      <c r="W15" s="81">
+        <v>0.2499806</v>
+      </c>
+      <c r="X15" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="81">
+        <v>8.6951449843999995E-2</v>
+      </c>
+      <c r="Z15" s="81">
+        <v>8.4562219919999987E-2</v>
+      </c>
+      <c r="AA15" s="81">
+        <v>0.74529726013333331</v>
+      </c>
+      <c r="AB15" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="81">
+        <v>0.24944222658466669</v>
+      </c>
+      <c r="AD15" s="91">
+        <v>8.3033355590666671E-2</v>
+      </c>
+      <c r="AE15" s="94">
+        <v>8.9367259423921137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+      <c r="C16" s="81">
+        <v>0</v>
+      </c>
+      <c r="D16" s="81">
+        <v>0</v>
+      </c>
+      <c r="E16" s="81">
+        <v>0</v>
+      </c>
+      <c r="F16" s="81">
+        <v>5.3842603037658213E-2</v>
+      </c>
+      <c r="G16" s="81">
+        <v>0</v>
+      </c>
+      <c r="H16" s="81">
+        <v>0.39884859065379691</v>
+      </c>
+      <c r="I16" s="81">
+        <v>0</v>
+      </c>
+      <c r="J16" s="81">
+        <v>1.320207592108861</v>
+      </c>
+      <c r="K16" s="81">
+        <v>0.19506645478955689</v>
+      </c>
+      <c r="L16" s="81">
+        <v>5.6515657473000003</v>
+      </c>
+      <c r="M16" s="81">
+        <v>0.84201530858930596</v>
+      </c>
+      <c r="N16" s="81">
+        <v>0.49684499999999998</v>
+      </c>
+      <c r="O16" s="81">
         <v>3.4801344944176869</v>
       </c>
-      <c r="Q15" s="80">
+      <c r="P16" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="81">
+        <v>0</v>
+      </c>
+      <c r="R16" s="81">
+        <v>1.535745711290355</v>
+      </c>
+      <c r="S16" s="81">
+        <v>0</v>
+      </c>
+      <c r="T16" s="91">
+        <v>0</v>
+      </c>
+      <c r="U16" s="81">
+        <v>0.6188125686988053</v>
+      </c>
+      <c r="V16" s="81">
+        <v>1.2654600760253161</v>
+      </c>
+      <c r="W16" s="81">
+        <v>1.3215732250000001</v>
+      </c>
+      <c r="X16" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="81">
+        <v>0.43836827039145571</v>
+      </c>
+      <c r="Z16" s="81">
+        <v>5.592536400949367E-3</v>
+      </c>
+      <c r="AA16" s="81">
+        <v>0.75060959079113909</v>
+      </c>
+      <c r="AB16" s="81">
+        <v>0.37111725524050632</v>
+      </c>
+      <c r="AC16" s="81">
+        <v>0.45828256617854102</v>
+      </c>
+      <c r="AD16" s="91">
+        <v>0.39238656170886071</v>
+      </c>
+      <c r="AE16" s="94">
+        <v>19.5964741526228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="80">
+        <v>0</v>
+      </c>
+      <c r="D17" s="80">
+        <v>0</v>
+      </c>
+      <c r="E17" s="80">
+        <v>0.1756836649317407</v>
+      </c>
+      <c r="F17" s="80">
+        <v>0.12581966904605271</v>
+      </c>
+      <c r="G17" s="80">
+        <v>1.228848006700215</v>
+      </c>
+      <c r="H17" s="80">
+        <v>0</v>
+      </c>
+      <c r="I17" s="80">
+        <v>0</v>
+      </c>
+      <c r="J17" s="80">
+        <v>0.17976653128</v>
+      </c>
+      <c r="K17" s="80">
+        <v>0.37061619213486841</v>
+      </c>
+      <c r="L17" s="80">
+        <v>0.86973929280000006</v>
+      </c>
+      <c r="M17" s="80">
+        <v>8.9245164960182088E-2</v>
+      </c>
+      <c r="N17" s="80">
+        <v>0</v>
+      </c>
+      <c r="O17" s="80">
         <v>0.67686815460197369</v>
       </c>
-      <c r="R15" s="81">
-        <v>0</v>
-      </c>
-      <c r="S15" s="24">
-        <v>0</v>
-      </c>
-      <c r="T15" s="24">
-        <v>0</v>
-      </c>
-      <c r="U15" s="24">
-        <v>0</v>
-      </c>
-      <c r="V15" s="24">
-        <v>0</v>
-      </c>
-      <c r="W15" s="25">
-        <v>0</v>
-      </c>
-      <c r="X15" s="78">
-        <v>39.14787792412934</v>
+      <c r="P17" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="80">
+        <v>0</v>
+      </c>
+      <c r="R17" s="80">
+        <v>0</v>
+      </c>
+      <c r="S17" s="80">
+        <v>0</v>
+      </c>
+      <c r="T17" s="90">
+        <v>0</v>
+      </c>
+      <c r="U17" s="80">
+        <v>1.4619679541569079</v>
+      </c>
+      <c r="V17" s="80">
+        <v>0.70919358009736844</v>
+      </c>
+      <c r="W17" s="80">
+        <v>0.16708746250000001</v>
+      </c>
+      <c r="X17" s="80">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="80">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="80">
+        <v>0.1169045902796053</v>
+      </c>
+      <c r="AA17" s="80">
+        <v>0.36773347559868419</v>
+      </c>
+      <c r="AB17" s="80">
+        <v>0.23126952203947371</v>
+      </c>
+      <c r="AC17" s="80">
+        <v>9.8258972854451176E-2</v>
+      </c>
+      <c r="AD17" s="90">
+        <v>9.1913277960526327E-2</v>
+      </c>
+      <c r="AE17" s="93">
+        <v>6.9609155119420496</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="12" customHeight="1">
-      <c r="A16" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="80">
-        <v>0</v>
-      </c>
-      <c r="C16" s="81">
-        <v>0</v>
-      </c>
-      <c r="D16" s="81">
-        <v>0</v>
-      </c>
-      <c r="E16" s="80">
-        <v>0</v>
-      </c>
-      <c r="F16" s="81">
-        <v>0</v>
-      </c>
-      <c r="G16" s="81">
-        <v>5.6637522900000001E-2</v>
-      </c>
-      <c r="H16" s="80">
-        <v>3.3607064797468347E-2</v>
-      </c>
-      <c r="I16" s="81">
-        <v>0</v>
-      </c>
-      <c r="J16" s="81">
-        <v>0</v>
-      </c>
-      <c r="K16" s="81">
-        <v>0</v>
-      </c>
-      <c r="L16" s="80">
-        <v>0</v>
-      </c>
-      <c r="M16" s="81">
-        <v>0</v>
-      </c>
-      <c r="N16" s="81">
-        <v>0</v>
-      </c>
-      <c r="O16" s="81">
-        <v>0</v>
-      </c>
-      <c r="P16" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="80">
-        <v>0</v>
-      </c>
-      <c r="R16" s="81">
-        <v>0</v>
-      </c>
-      <c r="S16" s="24">
-        <v>0</v>
-      </c>
-      <c r="T16" s="24">
-        <v>0</v>
-      </c>
-      <c r="U16" s="24">
-        <v>0</v>
-      </c>
-      <c r="V16" s="24">
-        <v>0</v>
-      </c>
-      <c r="W16" s="25">
-        <v>0</v>
-      </c>
-      <c r="X16" s="78">
-        <v>9.0244587697468348E-2</v>
+    <row r="18" spans="1:31">
+      <c r="A18" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0</v>
+      </c>
+      <c r="C18" s="81">
+        <v>0</v>
+      </c>
+      <c r="D18" s="81">
+        <v>0</v>
+      </c>
+      <c r="E18" s="81">
+        <v>0</v>
+      </c>
+      <c r="F18" s="81">
+        <v>0</v>
+      </c>
+      <c r="G18" s="81">
+        <v>0.26508210474805127</v>
+      </c>
+      <c r="H18" s="81">
+        <v>0</v>
+      </c>
+      <c r="I18" s="81">
+        <v>0</v>
+      </c>
+      <c r="J18" s="81">
+        <v>0</v>
+      </c>
+      <c r="K18" s="81">
+        <v>0</v>
+      </c>
+      <c r="L18" s="81">
+        <v>5.2471367999999997E-3</v>
+      </c>
+      <c r="M18" s="81">
+        <v>0</v>
+      </c>
+      <c r="N18" s="81">
+        <v>0</v>
+      </c>
+      <c r="O18" s="81">
+        <v>0</v>
+      </c>
+      <c r="P18" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="24">
+        <v>0</v>
+      </c>
+      <c r="R18" s="81">
+        <v>0</v>
+      </c>
+      <c r="S18" s="81">
+        <v>0</v>
+      </c>
+      <c r="T18" s="91">
+        <v>0</v>
+      </c>
+      <c r="U18" s="24">
+        <v>35.009242193448173</v>
+      </c>
+      <c r="V18" s="24">
+        <v>0.59742590569817067</v>
+      </c>
+      <c r="W18" s="24">
+        <v>41.885045774999753</v>
+      </c>
+      <c r="X18" s="24">
+        <v>2.7967769236137201</v>
+      </c>
+      <c r="Y18" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="24">
+        <v>3.3827477840274391</v>
+      </c>
+      <c r="AA18" s="24">
+        <v>15.93324841527439</v>
+      </c>
+      <c r="AB18" s="24">
+        <v>10.08417389231403</v>
+      </c>
+      <c r="AC18" s="24">
+        <v>1.9459377285448169</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>0.39412774576707321</v>
+      </c>
+      <c r="AE18" s="83">
+        <v>112.29905560523559</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="12" customHeight="1">
-      <c r="A17" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="80">
-        <v>0</v>
-      </c>
-      <c r="C17" s="81">
-        <v>0</v>
-      </c>
-      <c r="D17" s="81">
-        <v>0</v>
-      </c>
-      <c r="E17" s="80">
-        <v>0</v>
-      </c>
-      <c r="F17" s="81">
-        <v>0</v>
-      </c>
-      <c r="G17" s="81">
-        <v>0</v>
-      </c>
-      <c r="H17" s="80">
-        <v>0</v>
-      </c>
-      <c r="I17" s="81">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="24">
-        <v>0</v>
-      </c>
-      <c r="N17" s="81">
-        <v>0</v>
-      </c>
-      <c r="O17" s="81">
-        <v>0</v>
-      </c>
-      <c r="P17" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="80">
-        <v>0</v>
-      </c>
-      <c r="R17" s="24">
-        <v>0</v>
-      </c>
-      <c r="S17" s="24">
-        <v>0</v>
-      </c>
-      <c r="T17" s="24">
-        <v>0</v>
-      </c>
-      <c r="U17" s="24">
-        <v>0</v>
-      </c>
-      <c r="V17" s="24">
-        <v>0</v>
-      </c>
-      <c r="W17" s="25">
-        <v>0</v>
-      </c>
-      <c r="X17" s="78">
-        <v>0</v>
+    <row r="19" spans="1:31">
+      <c r="A19" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="24">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="24">
+        <v>0</v>
+      </c>
+      <c r="R19" s="24">
+        <v>0</v>
+      </c>
+      <c r="S19" s="24">
+        <v>0</v>
+      </c>
+      <c r="T19" s="26">
+        <v>0</v>
+      </c>
+      <c r="U19" s="24">
+        <v>0.47738751373151322</v>
+      </c>
+      <c r="V19" s="24">
+        <v>0</v>
+      </c>
+      <c r="W19" s="24">
+        <v>4.3792684749999999</v>
+      </c>
+      <c r="X19" s="24">
+        <v>0.96332033796463423</v>
+      </c>
+      <c r="Y19" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="24">
+        <v>0.26249064097560981</v>
+      </c>
+      <c r="AB19" s="24">
+        <v>7.9948035402439013E-2</v>
+      </c>
+      <c r="AC19" s="24">
+        <v>0.25994085690243912</v>
+      </c>
+      <c r="AD19" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="83">
+        <v>6.4223558599766353</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="12" customHeight="1">
-      <c r="A18" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="80">
-        <v>1.5272443785125851</v>
-      </c>
-      <c r="C18" s="81">
-        <v>0</v>
-      </c>
-      <c r="D18" s="81">
-        <v>0.37385899737450229</v>
-      </c>
-      <c r="E18" s="80">
-        <v>0</v>
-      </c>
-      <c r="F18" s="81">
-        <v>0</v>
-      </c>
-      <c r="G18" s="81">
-        <v>0.19906745549999999</v>
-      </c>
-      <c r="H18" s="80">
-        <v>0</v>
-      </c>
-      <c r="I18" s="81">
-        <v>0.1919031689597554</v>
-      </c>
-      <c r="J18" s="81">
-        <v>3.8781047554340891</v>
-      </c>
-      <c r="K18" s="81">
-        <v>0.44273314071891329</v>
-      </c>
-      <c r="L18" s="80">
-        <v>0</v>
-      </c>
-      <c r="M18" s="81">
-        <v>0.101872740365472</v>
-      </c>
-      <c r="N18" s="81">
-        <v>0</v>
-      </c>
-      <c r="O18" s="81">
-        <v>0.18339776287683329</v>
-      </c>
-      <c r="P18" s="81">
-        <v>1.535745711290355</v>
-      </c>
-      <c r="Q18" s="80">
-        <v>0</v>
-      </c>
-      <c r="R18" s="81">
-        <v>0</v>
-      </c>
-      <c r="S18" s="24">
-        <v>0</v>
-      </c>
-      <c r="T18" s="24">
-        <v>0</v>
-      </c>
-      <c r="U18" s="24">
-        <v>0</v>
-      </c>
-      <c r="V18" s="24">
-        <v>0</v>
-      </c>
-      <c r="W18" s="25">
-        <v>0</v>
-      </c>
-      <c r="X18" s="78">
-        <v>8.4339281110325075</v>
+    <row r="20" spans="1:31">
+      <c r="A20" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="24">
+        <v>0</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.40753351048510639</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
+        <v>1.38856599E-2</v>
+      </c>
+      <c r="M20" s="24">
+        <v>8.9619444444444349E-2</v>
+      </c>
+      <c r="N20" s="24">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="P20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24">
+        <v>0</v>
+      </c>
+      <c r="S20" s="24">
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24">
+        <v>5.1273949558333278</v>
+      </c>
+      <c r="V20" s="24">
+        <v>9.4981494557446838E-2</v>
+      </c>
+      <c r="W20" s="24">
+        <v>3.4619653499999998</v>
+      </c>
+      <c r="X20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="24">
+        <v>9.5007182553191516E-2</v>
+      </c>
+      <c r="AA20" s="24">
+        <v>4.4240528700851076</v>
+      </c>
+      <c r="AB20" s="24">
+        <v>1.5102120270553201</v>
+      </c>
+      <c r="AC20" s="24">
+        <v>0.14579543187702129</v>
+      </c>
+      <c r="AD20" s="26">
+        <v>8.5946883611111025E-2</v>
+      </c>
+      <c r="AE20" s="83">
+        <v>15.456394810402079</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="12" customHeight="1">
-      <c r="A19" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="80">
-        <v>0</v>
-      </c>
-      <c r="C19" s="81">
-        <v>0</v>
-      </c>
-      <c r="D19" s="81">
-        <v>0</v>
-      </c>
-      <c r="E19" s="80">
-        <v>0</v>
-      </c>
-      <c r="F19" s="81">
-        <v>0</v>
-      </c>
-      <c r="G19" s="81">
-        <v>0</v>
-      </c>
-      <c r="H19" s="80">
-        <v>0</v>
-      </c>
-      <c r="I19" s="81">
-        <v>0</v>
-      </c>
-      <c r="J19" s="81">
-        <v>0.91115787038609231</v>
-      </c>
-      <c r="K19" s="81">
-        <v>0</v>
-      </c>
-      <c r="L19" s="80">
-        <v>0</v>
-      </c>
-      <c r="M19" s="81">
-        <v>0</v>
-      </c>
-      <c r="N19" s="81">
-        <v>0</v>
-      </c>
-      <c r="O19" s="81">
-        <v>0</v>
-      </c>
-      <c r="P19" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="80">
-        <v>0</v>
-      </c>
-      <c r="R19" s="81">
-        <v>0</v>
-      </c>
-      <c r="S19" s="24">
-        <v>0</v>
-      </c>
-      <c r="T19" s="24">
-        <v>0</v>
-      </c>
-      <c r="U19" s="24">
-        <v>0</v>
-      </c>
-      <c r="V19" s="24">
-        <v>0</v>
-      </c>
-      <c r="W19" s="25">
-        <v>0</v>
-      </c>
-      <c r="X19" s="78">
-        <v>0.91115787038609231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12" customHeight="1">
-      <c r="A20" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="90">
-        <v>0</v>
-      </c>
-      <c r="C20" s="91">
-        <v>0</v>
-      </c>
-      <c r="D20" s="91">
-        <v>0</v>
-      </c>
-      <c r="E20" s="90">
-        <v>0</v>
-      </c>
-      <c r="F20" s="91">
-        <v>0</v>
-      </c>
-      <c r="G20" s="91">
-        <v>0</v>
-      </c>
-      <c r="H20" s="90">
-        <v>0</v>
-      </c>
-      <c r="I20" s="91">
-        <v>0</v>
-      </c>
-      <c r="J20" s="91">
-        <v>0</v>
-      </c>
-      <c r="K20" s="91">
-        <v>0</v>
-      </c>
-      <c r="L20" s="90">
-        <v>0</v>
-      </c>
-      <c r="M20" s="91">
-        <v>0</v>
-      </c>
-      <c r="N20" s="91">
-        <v>0</v>
-      </c>
-      <c r="O20" s="91">
-        <v>9.2057816262087533E-2</v>
-      </c>
-      <c r="P20" s="91">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="90">
-        <v>0</v>
-      </c>
-      <c r="R20" s="91">
-        <v>0</v>
-      </c>
-      <c r="S20" s="26">
-        <v>0</v>
-      </c>
-      <c r="T20" s="26">
-        <v>0</v>
-      </c>
-      <c r="U20" s="26">
-        <v>0</v>
-      </c>
-      <c r="V20" s="26">
-        <v>0</v>
-      </c>
-      <c r="W20" s="27">
-        <v>0</v>
-      </c>
-      <c r="X20" s="92">
-        <v>9.2057816262087533E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12" customHeight="1">
-      <c r="A21" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="80">
-        <v>2.5890405553096909</v>
-      </c>
-      <c r="C21" s="81">
-        <v>0.31622992712949999</v>
-      </c>
-      <c r="D21" s="81">
-        <v>0.57553513035304049</v>
-      </c>
-      <c r="E21" s="80">
-        <v>0</v>
-      </c>
-      <c r="F21" s="81">
-        <v>0</v>
-      </c>
-      <c r="G21" s="81">
-        <v>0.21708150900000001</v>
-      </c>
-      <c r="H21" s="80">
-        <v>6.1138098465787056</v>
-      </c>
-      <c r="I21" s="81">
-        <v>0.8588404900060439</v>
+    <row r="21" spans="1:31">
+      <c r="A21" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
+        <v>0</v>
+      </c>
+      <c r="I21" s="24">
+        <v>0</v>
       </c>
       <c r="J21" s="24">
-        <v>24.789097540003169</v>
+        <v>0</v>
       </c>
       <c r="K21" s="24">
-        <v>0.26527272495044768</v>
-      </c>
-      <c r="L21" s="25">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L21" s="24">
+        <v>7.0591355999999996E-3</v>
       </c>
       <c r="M21" s="24">
-        <v>9.2520797331932775E-2</v>
-      </c>
-      <c r="N21" s="81">
-        <v>0</v>
-      </c>
-      <c r="O21" s="81">
-        <v>0.44198843108966118</v>
-      </c>
-      <c r="P21" s="81">
-        <v>0.6188125686988053</v>
-      </c>
-      <c r="Q21" s="80">
-        <v>1.4619679541569079</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="24">
+        <v>0</v>
+      </c>
+      <c r="O21" s="24">
+        <v>0</v>
+      </c>
+      <c r="P21" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>0</v>
       </c>
       <c r="R21" s="24">
-        <v>35.009242193448173</v>
+        <v>0</v>
       </c>
       <c r="S21" s="24">
-        <v>0.47738751373151322</v>
-      </c>
-      <c r="T21" s="24">
-        <v>5.1273949558333278</v>
+        <v>0</v>
+      </c>
+      <c r="T21" s="26">
+        <v>0</v>
       </c>
       <c r="U21" s="24">
         <v>10.200687318390941</v>
       </c>
       <c r="V21" s="24">
+        <v>0.1063338420821875</v>
+      </c>
+      <c r="W21" s="24">
+        <v>16.313458379661419</v>
+      </c>
+      <c r="X21" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="24">
+        <v>9.0564188330844717E-2</v>
+      </c>
+      <c r="Z21" s="24">
+        <v>0.1090182574525</v>
+      </c>
+      <c r="AA21" s="24">
+        <v>7.5278161767187504</v>
+      </c>
+      <c r="AB21" s="24">
+        <v>0.8188368733187501</v>
+      </c>
+      <c r="AC21" s="24">
+        <v>2.1919910337668749</v>
+      </c>
+      <c r="AD21" s="26">
+        <v>8.0141273437499994E-2</v>
+      </c>
+      <c r="AE21" s="83">
+        <v>37.445906478759767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="24">
+        <v>0</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0</v>
+      </c>
+      <c r="J22" s="24">
+        <v>0</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0</v>
+      </c>
+      <c r="M22" s="24">
+        <v>0</v>
+      </c>
+      <c r="N22" s="24">
+        <v>0</v>
+      </c>
+      <c r="O22" s="24">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>0</v>
+      </c>
+      <c r="R22" s="24">
+        <v>0</v>
+      </c>
+      <c r="S22" s="24">
+        <v>0</v>
+      </c>
+      <c r="T22" s="26">
+        <v>0</v>
+      </c>
+      <c r="U22" s="24">
         <v>3.184418490199215</v>
       </c>
-      <c r="W21" s="25">
+      <c r="V22" s="24">
+        <v>0</v>
+      </c>
+      <c r="W22" s="24">
+        <v>5.4397841433143288</v>
+      </c>
+      <c r="X22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="24">
+        <v>0.84204317593986688</v>
+      </c>
+      <c r="AB22" s="24">
+        <v>1.8466262734805019</v>
+      </c>
+      <c r="AC22" s="24">
+        <v>4.816750525933635E-2</v>
+      </c>
+      <c r="AD22" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="83">
+        <v>11.36103958819325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="77">
+        <v>0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0</v>
+      </c>
+      <c r="F23" s="25">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <v>0</v>
+      </c>
+      <c r="K23" s="25">
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <v>0.10376008142</v>
+      </c>
+      <c r="M23" s="25">
+        <v>0</v>
+      </c>
+      <c r="N23" s="25">
+        <v>0</v>
+      </c>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>0</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="27">
+        <v>0</v>
+      </c>
+      <c r="U23" s="25">
         <v>0.83958239999999984</v>
       </c>
-      <c r="X21" s="78">
-        <v>93.178910346211055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="12" customHeight="1">
-      <c r="A22" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="80">
-        <v>3.3031659776736109</v>
-      </c>
-      <c r="C22" s="81">
-        <v>0</v>
-      </c>
-      <c r="D22" s="81">
-        <v>0.15373162592905401</v>
-      </c>
-      <c r="E22" s="80">
-        <v>0</v>
-      </c>
-      <c r="F22" s="81">
-        <v>0</v>
-      </c>
-      <c r="G22" s="81">
-        <v>0.38447061279999989</v>
-      </c>
-      <c r="H22" s="80">
-        <v>0.58313551506329109</v>
-      </c>
-      <c r="I22" s="81">
-        <v>1.267800652308642</v>
-      </c>
-      <c r="J22" s="24">
-        <v>14.666969184398731</v>
-      </c>
-      <c r="K22" s="24">
-        <v>3.8427525333174888</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="24">
-        <v>0.2894480183823529</v>
-      </c>
-      <c r="N22" s="81">
-        <v>0.88059177790458942</v>
-      </c>
-      <c r="O22" s="81">
-        <v>0.23654304182499999</v>
-      </c>
-      <c r="P22" s="81">
-        <v>1.2654600760253161</v>
-      </c>
-      <c r="Q22" s="80">
-        <v>0.70919358009736844</v>
-      </c>
-      <c r="R22" s="24">
-        <v>0.59742590569817067</v>
-      </c>
-      <c r="S22" s="24">
-        <v>0</v>
-      </c>
-      <c r="T22" s="24">
-        <v>9.4981494557446838E-2</v>
-      </c>
-      <c r="U22" s="24">
-        <v>0.1063338420821875</v>
-      </c>
-      <c r="V22" s="24">
-        <v>0</v>
-      </c>
-      <c r="W22" s="25">
-        <v>0</v>
-      </c>
-      <c r="X22" s="78">
-        <v>28.382003838063252</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="12" customHeight="1">
-      <c r="A23" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="80">
-        <v>5.6351038000000004</v>
-      </c>
-      <c r="C23" s="81">
-        <v>0.27075054999999998</v>
-      </c>
-      <c r="D23" s="81">
-        <v>0.14736118749999999</v>
-      </c>
-      <c r="E23" s="80">
-        <v>0</v>
-      </c>
-      <c r="F23" s="81">
-        <v>0</v>
-      </c>
-      <c r="G23" s="81">
-        <v>0</v>
-      </c>
-      <c r="H23" s="80">
-        <v>9.2430010750000005</v>
-      </c>
-      <c r="I23" s="81">
-        <v>3.435579175</v>
-      </c>
-      <c r="J23" s="24">
-        <v>3.9288259750000001</v>
-      </c>
-      <c r="K23" s="24">
-        <v>1.8184524500000001</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0</v>
-      </c>
-      <c r="M23" s="24">
-        <v>0.16964351250000001</v>
-      </c>
-      <c r="N23" s="81">
-        <v>0</v>
-      </c>
-      <c r="O23" s="81">
-        <v>0.2499806</v>
-      </c>
-      <c r="P23" s="81">
-        <v>1.3215732250000001</v>
-      </c>
-      <c r="Q23" s="80">
-        <v>0.16708746250000001</v>
-      </c>
-      <c r="R23" s="24">
-        <v>41.885045774999753</v>
-      </c>
-      <c r="S23" s="24">
-        <v>4.3792684749999999</v>
-      </c>
-      <c r="T23" s="24">
-        <v>3.4619653499999998</v>
-      </c>
-      <c r="U23" s="24">
-        <v>16.313458379661419</v>
-      </c>
-      <c r="V23" s="24">
-        <v>5.4397841433143288</v>
+      <c r="V23" s="25">
+        <v>0</v>
       </c>
       <c r="W23" s="25">
         <v>0.39571788376000011</v>
       </c>
-      <c r="X23" s="78">
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="25">
+        <v>0.360735376</v>
+      </c>
+      <c r="AB23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="27">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="95">
+        <v>1.69979574118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="78">
+        <v>0.1082782330440842</v>
+      </c>
+      <c r="C24" s="78">
+        <v>0.55174557919870137</v>
+      </c>
+      <c r="D24" s="78">
+        <v>0.65247641071900586</v>
+      </c>
+      <c r="E24" s="78">
+        <v>2.262410145063888</v>
+      </c>
+      <c r="F24" s="78">
+        <v>2.3063584071714089</v>
+      </c>
+      <c r="G24" s="78">
+        <v>3.349822894163613</v>
+      </c>
+      <c r="H24" s="78">
+        <v>5.5493165114807326</v>
+      </c>
+      <c r="I24" s="78">
+        <v>12.42838257654641</v>
+      </c>
+      <c r="J24" s="78">
+        <v>35.094166524914058</v>
+      </c>
+      <c r="K24" s="78">
+        <v>14.265608819408589</v>
+      </c>
+      <c r="L24" s="78">
+        <v>28.813945018836002</v>
+      </c>
+      <c r="M24" s="78">
+        <v>15.058101030443879</v>
+      </c>
+      <c r="N24" s="78">
+        <v>25.34064288759955</v>
+      </c>
+      <c r="O24" s="78">
+        <v>39.14787792412934</v>
+      </c>
+      <c r="P24" s="78">
+        <v>9.0244587697468348E-2</v>
+      </c>
+      <c r="Q24" s="78">
+        <v>0</v>
+      </c>
+      <c r="R24" s="78">
+        <v>8.4339281110325075</v>
+      </c>
+      <c r="S24" s="78">
+        <v>0.91115787038609231</v>
+      </c>
+      <c r="T24" s="92">
+        <v>9.2057816262087533E-2</v>
+      </c>
+      <c r="U24" s="78">
+        <v>93.178910346211055</v>
+      </c>
+      <c r="V24" s="78">
+        <v>28.382003838063252</v>
+      </c>
+      <c r="W24" s="78">
         <v>98.262599019235495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="12" customHeight="1">
-      <c r="A24" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="80">
-        <v>0</v>
-      </c>
-      <c r="C24" s="81">
-        <v>0</v>
-      </c>
-      <c r="D24" s="81">
-        <v>0</v>
-      </c>
-      <c r="E24" s="80">
-        <v>0</v>
-      </c>
-      <c r="F24" s="81">
-        <v>0</v>
-      </c>
-      <c r="G24" s="81">
-        <v>0</v>
-      </c>
-      <c r="H24" s="80">
-        <v>0</v>
-      </c>
-      <c r="I24" s="81">
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <v>0</v>
-      </c>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="24">
-        <v>0</v>
-      </c>
-      <c r="N24" s="81">
-        <v>0</v>
-      </c>
-      <c r="O24" s="81">
-        <v>0</v>
-      </c>
-      <c r="P24" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="80">
-        <v>0</v>
-      </c>
-      <c r="R24" s="24">
-        <v>2.7967769236137201</v>
-      </c>
-      <c r="S24" s="24">
-        <v>0.96332033796463423</v>
-      </c>
-      <c r="T24" s="24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="24">
-        <v>0</v>
-      </c>
-      <c r="V24" s="24">
-        <v>0</v>
-      </c>
-      <c r="W24" s="25">
-        <v>0</v>
       </c>
       <c r="X24" s="78">
         <v>3.760097261578355</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" ht="12" customHeight="1">
-      <c r="A25" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="80">
-        <v>8.2338019915600108E-2</v>
-      </c>
-      <c r="C25" s="81">
-        <v>0</v>
-      </c>
-      <c r="D25" s="81">
-        <v>0</v>
-      </c>
-      <c r="E25" s="80">
-        <v>0</v>
-      </c>
-      <c r="F25" s="81">
-        <v>0</v>
-      </c>
-      <c r="G25" s="81">
-        <v>0</v>
-      </c>
-      <c r="H25" s="80">
-        <v>0</v>
-      </c>
-      <c r="I25" s="81">
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <v>8.6281778601161392</v>
-      </c>
-      <c r="K25" s="24">
-        <v>0.19594330595256609</v>
-      </c>
-      <c r="L25" s="25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="24">
-        <v>9.1222587132352942E-2</v>
-      </c>
-      <c r="N25" s="81">
-        <v>9.1473353431188842E-2</v>
-      </c>
-      <c r="O25" s="81">
-        <v>8.6951449843999995E-2</v>
-      </c>
-      <c r="P25" s="81">
-        <v>0.43836827039145571</v>
-      </c>
-      <c r="Q25" s="80">
-        <v>0</v>
-      </c>
-      <c r="R25" s="24">
-        <v>0</v>
-      </c>
-      <c r="S25" s="24">
-        <v>0</v>
-      </c>
-      <c r="T25" s="24">
-        <v>0</v>
-      </c>
-      <c r="U25" s="24">
-        <v>9.0564188330844717E-2</v>
-      </c>
-      <c r="V25" s="24">
-        <v>0</v>
-      </c>
-      <c r="W25" s="25">
-        <v>0</v>
-      </c>
-      <c r="X25" s="78">
+      <c r="Y24" s="78">
         <v>9.7050390351141473</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" ht="12" customHeight="1">
-      <c r="A26" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="80">
-        <v>0.61552625167875419</v>
-      </c>
-      <c r="C26" s="81">
-        <v>0</v>
-      </c>
-      <c r="D26" s="81">
-        <v>9.4037173581081074E-2</v>
-      </c>
-      <c r="E26" s="80">
-        <v>0</v>
-      </c>
-      <c r="F26" s="81">
-        <v>0</v>
-      </c>
-      <c r="G26" s="81">
-        <v>1.1832247799999999E-2</v>
-      </c>
-      <c r="H26" s="80">
-        <v>9.3316498683544316E-2</v>
-      </c>
-      <c r="I26" s="81">
-        <v>0</v>
-      </c>
-      <c r="J26" s="24">
-        <v>0.54983180019082267</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="24">
-        <v>0</v>
-      </c>
-      <c r="N26" s="81">
-        <v>9.092095572548424E-2</v>
-      </c>
-      <c r="O26" s="81">
-        <v>8.4562219919999987E-2</v>
-      </c>
-      <c r="P26" s="81">
-        <v>5.592536400949367E-3</v>
-      </c>
-      <c r="Q26" s="80">
-        <v>0.1169045902796053</v>
-      </c>
-      <c r="R26" s="24">
-        <v>3.3827477840274391</v>
-      </c>
-      <c r="S26" s="24">
-        <v>0</v>
-      </c>
-      <c r="T26" s="24">
-        <v>9.5007182553191516E-2</v>
-      </c>
-      <c r="U26" s="24">
-        <v>0.1090182574525</v>
-      </c>
-      <c r="V26" s="24">
-        <v>0</v>
-      </c>
-      <c r="W26" s="25">
-        <v>0</v>
-      </c>
-      <c r="X26" s="78">
+      <c r="Z24" s="78">
         <v>5.2492974982933722</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="12" customHeight="1">
-      <c r="A27" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="80">
-        <v>7.8409151743439969</v>
-      </c>
-      <c r="C27" s="81">
-        <v>0.86344938607594923</v>
-      </c>
-      <c r="D27" s="81">
-        <v>0.16066914527027021</v>
-      </c>
-      <c r="E27" s="80">
-        <v>0</v>
-      </c>
-      <c r="F27" s="81">
-        <v>0</v>
-      </c>
-      <c r="G27" s="81">
-        <v>0.1892624637982582</v>
-      </c>
-      <c r="H27" s="80">
-        <v>2.6881878708860758</v>
-      </c>
-      <c r="I27" s="81">
-        <v>6.9280140259049858</v>
-      </c>
-      <c r="J27" s="24">
-        <v>13.369065008765819</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0.56046276096465364</v>
-      </c>
-      <c r="L27" s="25">
-        <v>0</v>
-      </c>
-      <c r="M27" s="24">
-        <v>8.6872963235294115E-2</v>
-      </c>
-      <c r="N27" s="81">
-        <v>0</v>
-      </c>
-      <c r="O27" s="81">
-        <v>0.74529726013333331</v>
-      </c>
-      <c r="P27" s="81">
-        <v>0.75060959079113909</v>
-      </c>
-      <c r="Q27" s="80">
-        <v>0.36773347559868419</v>
-      </c>
-      <c r="R27" s="24">
-        <v>15.93324841527439</v>
-      </c>
-      <c r="S27" s="24">
-        <v>0.26249064097560981</v>
-      </c>
-      <c r="T27" s="24">
-        <v>4.4240528700851076</v>
-      </c>
-      <c r="U27" s="24">
-        <v>7.5278161767187504</v>
-      </c>
-      <c r="V27" s="24">
-        <v>0.84204317593986688</v>
-      </c>
-      <c r="W27" s="25">
-        <v>0.360735376</v>
-      </c>
-      <c r="X27" s="78">
+      <c r="AA24" s="78">
         <v>63.900925780762179</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" ht="12" customHeight="1">
-      <c r="A28" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="80">
-        <v>2.916754267420139</v>
-      </c>
-      <c r="C28" s="81">
-        <v>0.22543215541139239</v>
-      </c>
-      <c r="D28" s="81">
-        <v>0</v>
-      </c>
-      <c r="E28" s="80">
-        <v>0</v>
-      </c>
-      <c r="F28" s="81">
-        <v>0</v>
-      </c>
-      <c r="G28" s="81">
-        <v>0</v>
-      </c>
-      <c r="H28" s="80">
-        <v>1.497577403765822</v>
-      </c>
-      <c r="I28" s="81">
-        <v>0.45026574114506168</v>
-      </c>
-      <c r="J28" s="24">
-        <v>7.1505235403069616</v>
-      </c>
-      <c r="K28" s="24">
-        <v>0.26048917497127511</v>
-      </c>
-      <c r="L28" s="25">
-        <v>0</v>
-      </c>
-      <c r="M28" s="24">
-        <v>0</v>
-      </c>
-      <c r="N28" s="81">
-        <v>0</v>
-      </c>
-      <c r="O28" s="81">
-        <v>0</v>
-      </c>
-      <c r="P28" s="81">
-        <v>0.37111725524050632</v>
-      </c>
-      <c r="Q28" s="80">
-        <v>0.23126952203947371</v>
-      </c>
-      <c r="R28" s="24">
-        <v>10.08417389231403</v>
-      </c>
-      <c r="S28" s="24">
-        <v>7.9948035402439013E-2</v>
-      </c>
-      <c r="T28" s="24">
-        <v>1.5102120270553201</v>
-      </c>
-      <c r="U28" s="24">
-        <v>0.8188368733187501</v>
-      </c>
-      <c r="V28" s="24">
-        <v>1.8466262734805019</v>
-      </c>
-      <c r="W28" s="25">
-        <v>0</v>
-      </c>
-      <c r="X28" s="78">
+      <c r="AB24" s="78">
         <v>27.443226161871671</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="12" customHeight="1">
-      <c r="A29" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="80">
-        <v>0.69609644162869744</v>
-      </c>
-      <c r="C29" s="81">
-        <v>0</v>
-      </c>
-      <c r="D29" s="81">
-        <v>0.744687536875</v>
-      </c>
-      <c r="E29" s="80">
-        <v>0</v>
-      </c>
-      <c r="F29" s="81">
-        <v>0</v>
-      </c>
-      <c r="G29" s="81">
-        <v>0.1023126123135653</v>
-      </c>
-      <c r="H29" s="80">
-        <v>9.4034710028481017E-2</v>
-      </c>
-      <c r="I29" s="81">
-        <v>0.86420369171759248</v>
-      </c>
-      <c r="J29" s="24">
-        <v>3.1979763195667719</v>
-      </c>
-      <c r="K29" s="24">
-        <v>0.19765418721798059</v>
-      </c>
-      <c r="L29" s="25">
-        <v>0</v>
-      </c>
-      <c r="M29" s="24">
-        <v>0</v>
-      </c>
-      <c r="N29" s="81">
-        <v>9.1473353431188842E-2</v>
-      </c>
-      <c r="O29" s="81">
-        <v>0.24944222658466669</v>
-      </c>
-      <c r="P29" s="81">
-        <v>0.45828256617854102</v>
-      </c>
-      <c r="Q29" s="80">
-        <v>9.8258972854451176E-2</v>
-      </c>
-      <c r="R29" s="24">
-        <v>1.9459377285448169</v>
-      </c>
-      <c r="S29" s="24">
-        <v>0.25994085690243912</v>
-      </c>
-      <c r="T29" s="24">
-        <v>0.14579543187702129</v>
-      </c>
-      <c r="U29" s="24">
-        <v>2.1919910337668749</v>
-      </c>
-      <c r="V29" s="24">
-        <v>4.816750525933635E-2</v>
-      </c>
-      <c r="W29" s="25">
-        <v>0</v>
-      </c>
-      <c r="X29" s="78">
+      <c r="AC24" s="78">
         <v>11.38625517474742</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="12" customHeight="1">
-      <c r="A30" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="90">
-        <v>0.4313237263177972</v>
-      </c>
-      <c r="C30" s="91">
-        <v>0</v>
-      </c>
-      <c r="D30" s="91">
-        <v>0</v>
-      </c>
-      <c r="E30" s="90">
-        <v>0</v>
-      </c>
-      <c r="F30" s="91">
-        <v>0</v>
-      </c>
-      <c r="G30" s="91">
-        <v>0</v>
-      </c>
-      <c r="H30" s="90">
-        <v>0.2519543272504266</v>
-      </c>
-      <c r="I30" s="91">
-        <v>0</v>
-      </c>
-      <c r="J30" s="26">
-        <v>4.7703134942389243</v>
-      </c>
-      <c r="K30" s="26">
-        <v>0</v>
-      </c>
-      <c r="L30" s="27">
-        <v>0</v>
-      </c>
-      <c r="M30" s="26">
-        <v>9.2060635061148963E-2</v>
-      </c>
-      <c r="N30" s="91">
-        <v>0</v>
-      </c>
-      <c r="O30" s="91">
-        <v>8.3033355590666671E-2</v>
-      </c>
-      <c r="P30" s="91">
-        <v>0.39238656170886071</v>
-      </c>
-      <c r="Q30" s="90">
-        <v>9.1913277960526327E-2</v>
-      </c>
-      <c r="R30" s="26">
-        <v>0.39412774576707321</v>
-      </c>
-      <c r="S30" s="26">
-        <v>0</v>
-      </c>
-      <c r="T30" s="26">
-        <v>8.5946883611111025E-2</v>
-      </c>
-      <c r="U30" s="26">
-        <v>8.0141273437499994E-2</v>
-      </c>
-      <c r="V30" s="26">
-        <v>0</v>
-      </c>
-      <c r="W30" s="27">
-        <v>0</v>
-      </c>
-      <c r="X30" s="92">
+      <c r="AD24" s="92">
         <v>6.673201280944034</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" ht="12" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="93">
-        <v>104.2980913179638</v>
-      </c>
-      <c r="C31" s="94">
-        <v>4.2152060207281696</v>
-      </c>
-      <c r="D31" s="94">
-        <v>10.9151849226929</v>
-      </c>
-      <c r="E31" s="93">
-        <v>3.8624183399999998E-2</v>
-      </c>
-      <c r="F31" s="94">
-        <v>3.7462348353700672</v>
-      </c>
-      <c r="G31" s="94">
-        <v>3.7757883852878238</v>
-      </c>
-      <c r="H31" s="93">
-        <v>40.17639685359125</v>
-      </c>
-      <c r="I31" s="94">
-        <v>14.954390377538431</v>
-      </c>
-      <c r="J31" s="83">
-        <v>114.0712171277125</v>
-      </c>
-      <c r="K31" s="83">
-        <v>7.5837602780933251</v>
-      </c>
-      <c r="L31" s="95">
-        <v>0</v>
-      </c>
-      <c r="M31" s="83">
-        <v>14.3817759108071</v>
-      </c>
-      <c r="N31" s="94">
-        <v>4.0627428410287187</v>
-      </c>
-      <c r="O31" s="94">
-        <v>8.9367259423921137</v>
-      </c>
-      <c r="P31" s="94">
-        <v>19.5964741526228</v>
-      </c>
-      <c r="Q31" s="93">
-        <v>6.9609155119420496</v>
-      </c>
-      <c r="R31" s="83">
-        <v>112.29905560523559</v>
-      </c>
-      <c r="S31" s="83">
-        <v>6.4223558599766353</v>
-      </c>
-      <c r="T31" s="83">
-        <v>15.456394810402079</v>
-      </c>
-      <c r="U31" s="83">
-        <v>37.445906478759767</v>
-      </c>
-      <c r="V31" s="83">
-        <v>11.36103958819325</v>
-      </c>
-      <c r="W31" s="95">
-        <v>1.69979574118</v>
-      </c>
-      <c r="X31" s="83">
+      <c r="AE24" s="83">
         <v>542.3980767449184</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A31">
+  <conditionalFormatting sqref="AE1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -49260,13 +49246,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98553001-CC44-4A0D-BB17-A50C4ED88E91}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -49276,320 +49262,308 @@
     <col min="25" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="33.75">
+    <row r="1" spans="1:23">
       <c r="A1" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="97" t="s">
+      <c r="D1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="U1" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" s="111" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="104">
+        <v>0</v>
+      </c>
+      <c r="C2" s="107">
+        <v>0</v>
+      </c>
+      <c r="D2" s="107">
+        <v>82.051382136950195</v>
+      </c>
+      <c r="E2" s="107">
+        <v>0</v>
+      </c>
+      <c r="F2" s="107">
+        <v>0</v>
+      </c>
+      <c r="G2" s="107">
+        <v>0</v>
+      </c>
+      <c r="H2" s="107">
+        <v>0</v>
+      </c>
+      <c r="I2" s="107">
+        <v>0</v>
+      </c>
+      <c r="J2" s="107">
+        <v>0</v>
+      </c>
+      <c r="K2" s="107">
+        <v>0</v>
+      </c>
+      <c r="L2" s="107">
+        <v>0</v>
+      </c>
+      <c r="M2" s="107">
+        <v>0</v>
+      </c>
+      <c r="N2" s="107">
+        <v>0</v>
+      </c>
+      <c r="O2" s="107">
+        <v>0</v>
+      </c>
+      <c r="P2" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="107">
+        <v>0</v>
+      </c>
+      <c r="R2" s="107">
+        <v>0</v>
+      </c>
+      <c r="S2" s="107">
+        <v>0</v>
+      </c>
+      <c r="T2" s="107">
+        <v>0</v>
+      </c>
+      <c r="U2" s="107">
+        <v>0</v>
+      </c>
+      <c r="V2" s="107">
+        <v>0</v>
+      </c>
+      <c r="W2" s="110">
+        <v>82.051382136950195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="104">
+        <v>0</v>
+      </c>
+      <c r="C3" s="107">
+        <v>0</v>
+      </c>
+      <c r="D3" s="107">
+        <v>2.8999286084999999E-2</v>
+      </c>
+      <c r="E3" s="107">
+        <v>0</v>
+      </c>
+      <c r="F3" s="107">
+        <v>0</v>
+      </c>
+      <c r="G3" s="107">
+        <v>0</v>
+      </c>
+      <c r="H3" s="107">
+        <v>0</v>
+      </c>
+      <c r="I3" s="107">
+        <v>0</v>
+      </c>
+      <c r="J3" s="107">
+        <v>0</v>
+      </c>
+      <c r="K3" s="107">
+        <v>0</v>
+      </c>
+      <c r="L3" s="107">
+        <v>0</v>
+      </c>
+      <c r="M3" s="107">
+        <v>0</v>
+      </c>
+      <c r="N3" s="107">
+        <v>0</v>
+      </c>
+      <c r="O3" s="107">
+        <v>0</v>
+      </c>
+      <c r="P3" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="107">
+        <v>0</v>
+      </c>
+      <c r="R3" s="107">
+        <v>0</v>
+      </c>
+      <c r="S3" s="107">
+        <v>0</v>
+      </c>
+      <c r="T3" s="107">
+        <v>0</v>
+      </c>
+      <c r="U3" s="107">
+        <v>0</v>
+      </c>
+      <c r="V3" s="107">
+        <v>0</v>
+      </c>
+      <c r="W3" s="110">
+        <v>2.8999286084999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="105">
+        <v>26.154739571730001</v>
+      </c>
+      <c r="C4" s="108">
+        <v>56.536070580412513</v>
+      </c>
+      <c r="D4" s="108">
+        <v>0</v>
+      </c>
+      <c r="E4" s="108">
+        <v>0</v>
+      </c>
+      <c r="F4" s="108">
+        <v>0</v>
+      </c>
+      <c r="G4" s="108">
+        <v>0</v>
+      </c>
+      <c r="H4" s="108">
+        <v>0</v>
+      </c>
+      <c r="I4" s="108">
+        <v>0</v>
+      </c>
+      <c r="J4" s="108">
+        <v>0</v>
+      </c>
+      <c r="K4" s="108">
+        <v>0</v>
+      </c>
+      <c r="L4" s="108">
+        <v>0</v>
+      </c>
+      <c r="M4" s="108">
+        <v>0</v>
+      </c>
+      <c r="N4" s="108">
+        <v>0</v>
+      </c>
+      <c r="O4" s="108">
+        <v>0</v>
+      </c>
+      <c r="P4" s="108">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="108">
+        <v>0</v>
+      </c>
+      <c r="R4" s="108">
+        <v>0</v>
+      </c>
+      <c r="S4" s="108">
+        <v>0</v>
+      </c>
+      <c r="T4" s="108">
+        <v>0</v>
+      </c>
+      <c r="U4" s="108">
+        <v>0</v>
+      </c>
+      <c r="V4" s="108">
+        <v>0</v>
+      </c>
+      <c r="W4" s="113">
+        <v>82.690810152142504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="99" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="100" t="s">
-        <v>55</v>
-      </c>
-      <c r="O1" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="S1" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="U1" s="100" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="100" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="12" customHeight="1">
-      <c r="A2" s="103" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="104">
-        <v>0</v>
-      </c>
-      <c r="C2" s="104">
-        <v>0</v>
-      </c>
-      <c r="D2" s="105">
-        <v>26.154739571730001</v>
-      </c>
-      <c r="E2" s="104">
-        <v>0</v>
-      </c>
-      <c r="F2" s="106">
-        <v>0</v>
-      </c>
-      <c r="G2" s="104">
-        <v>0</v>
-      </c>
-      <c r="H2" s="104">
-        <v>0</v>
-      </c>
-      <c r="I2" s="105">
-        <v>0</v>
-      </c>
-      <c r="J2" s="104">
-        <v>0</v>
-      </c>
-      <c r="K2" s="104">
-        <v>0</v>
-      </c>
-      <c r="L2" s="104">
-        <v>0</v>
-      </c>
-      <c r="M2" s="104">
-        <v>0</v>
-      </c>
-      <c r="N2" s="105">
-        <v>0</v>
-      </c>
-      <c r="O2" s="104">
-        <v>0</v>
-      </c>
-      <c r="P2" s="104">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="105">
-        <v>0</v>
-      </c>
-      <c r="R2" s="104">
-        <v>0</v>
-      </c>
-      <c r="S2" s="104">
-        <v>0</v>
-      </c>
-      <c r="T2" s="105">
-        <v>0</v>
-      </c>
-      <c r="U2" s="104">
-        <v>0</v>
-      </c>
-      <c r="V2" s="104">
-        <v>0</v>
-      </c>
-      <c r="W2" s="105">
-        <v>0</v>
-      </c>
-      <c r="X2" s="78">
-        <v>26.154739571730001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="12" customHeight="1">
-      <c r="A3" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="107">
-        <v>0</v>
-      </c>
-      <c r="C3" s="107">
-        <v>0</v>
-      </c>
-      <c r="D3" s="108">
-        <v>56.536070580412513</v>
-      </c>
-      <c r="E3" s="107">
-        <v>0</v>
-      </c>
-      <c r="F3" s="108">
-        <v>0</v>
-      </c>
-      <c r="G3" s="107">
-        <v>0</v>
-      </c>
-      <c r="H3" s="107">
-        <v>0</v>
-      </c>
-      <c r="I3" s="108">
-        <v>0</v>
-      </c>
-      <c r="J3" s="107">
-        <v>0</v>
-      </c>
-      <c r="K3" s="107">
-        <v>0</v>
-      </c>
-      <c r="L3" s="107">
-        <v>0</v>
-      </c>
-      <c r="M3" s="107">
-        <v>0</v>
-      </c>
-      <c r="N3" s="108">
-        <v>0</v>
-      </c>
-      <c r="O3" s="107">
-        <v>0</v>
-      </c>
-      <c r="P3" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="108">
-        <v>0</v>
-      </c>
-      <c r="R3" s="107">
-        <v>0</v>
-      </c>
-      <c r="S3" s="107">
-        <v>0</v>
-      </c>
-      <c r="T3" s="108">
-        <v>0</v>
-      </c>
-      <c r="U3" s="107">
-        <v>0</v>
-      </c>
-      <c r="V3" s="107">
-        <v>0</v>
-      </c>
-      <c r="W3" s="108">
-        <v>0</v>
-      </c>
-      <c r="X3" s="109">
-        <v>56.536070580412513</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="12" customHeight="1">
-      <c r="A4" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="107">
-        <v>82.051382136950195</v>
-      </c>
-      <c r="C4" s="107">
-        <v>2.8999286084999999E-2</v>
-      </c>
-      <c r="D4" s="108">
-        <v>0</v>
-      </c>
-      <c r="E4" s="107">
-        <v>0</v>
-      </c>
-      <c r="F4" s="108">
-        <v>0</v>
-      </c>
-      <c r="G4" s="107">
-        <v>0</v>
-      </c>
-      <c r="H4" s="107">
-        <v>0</v>
-      </c>
-      <c r="I4" s="108">
-        <v>0</v>
-      </c>
-      <c r="J4" s="107">
-        <v>0</v>
-      </c>
-      <c r="K4" s="107">
-        <v>0</v>
-      </c>
-      <c r="L4" s="107">
-        <v>0</v>
-      </c>
-      <c r="M4" s="107">
-        <v>0</v>
-      </c>
-      <c r="N4" s="108">
-        <v>0</v>
-      </c>
-      <c r="O4" s="107">
-        <v>0</v>
-      </c>
-      <c r="P4" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="108">
-        <v>0</v>
-      </c>
-      <c r="R4" s="107">
-        <v>0</v>
-      </c>
-      <c r="S4" s="107">
-        <v>0</v>
-      </c>
-      <c r="T4" s="108">
-        <v>0</v>
-      </c>
-      <c r="U4" s="107">
-        <v>0</v>
-      </c>
-      <c r="V4" s="107">
-        <v>0</v>
-      </c>
-      <c r="W4" s="108">
-        <v>0</v>
-      </c>
-      <c r="X4" s="109">
-        <v>82.080381423035192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="12" customHeight="1">
-      <c r="A5" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="107">
+      <c r="B5" s="104">
         <v>0</v>
       </c>
       <c r="C5" s="107">
         <v>0</v>
       </c>
-      <c r="D5" s="108">
+      <c r="D5" s="107">
         <v>0</v>
       </c>
       <c r="E5" s="107">
         <v>3.6911874999999998</v>
       </c>
-      <c r="F5" s="108">
-        <v>0</v>
+      <c r="F5" s="107">
+        <v>6.1445988478875009</v>
       </c>
       <c r="G5" s="107">
         <v>0</v>
@@ -49597,7 +49571,7 @@
       <c r="H5" s="107">
         <v>0</v>
       </c>
-      <c r="I5" s="108">
+      <c r="I5" s="107">
         <v>0</v>
       </c>
       <c r="J5" s="107">
@@ -49612,7 +49586,7 @@
       <c r="M5" s="107">
         <v>0</v>
       </c>
-      <c r="N5" s="108">
+      <c r="N5" s="107">
         <v>0</v>
       </c>
       <c r="O5" s="107">
@@ -49621,7 +49595,7 @@
       <c r="P5" s="107">
         <v>0</v>
       </c>
-      <c r="Q5" s="108">
+      <c r="Q5" s="107">
         <v>0</v>
       </c>
       <c r="R5" s="107">
@@ -49630,7 +49604,7 @@
       <c r="S5" s="107">
         <v>0</v>
       </c>
-      <c r="T5" s="108">
+      <c r="T5" s="107">
         <v>0</v>
       </c>
       <c r="U5" s="107">
@@ -49639,114 +49613,108 @@
       <c r="V5" s="107">
         <v>0</v>
       </c>
-      <c r="W5" s="108">
-        <v>0</v>
-      </c>
-      <c r="X5" s="109">
-        <v>3.6911874999999998</v>
+      <c r="W5" s="110">
+        <v>9.8357863478875007</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1">
-      <c r="A6" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="107">
-        <v>0</v>
-      </c>
-      <c r="C6" s="107">
+    <row r="6" spans="1:23">
+      <c r="A6" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="106">
+        <v>0</v>
+      </c>
+      <c r="C6" s="108">
         <v>0</v>
       </c>
       <c r="D6" s="108">
         <v>0</v>
       </c>
-      <c r="E6" s="107">
-        <v>6.1445988478875009</v>
+      <c r="E6" s="108">
+        <v>0</v>
       </c>
       <c r="F6" s="108">
         <v>0</v>
       </c>
-      <c r="G6" s="107">
-        <v>0</v>
-      </c>
-      <c r="H6" s="107">
+      <c r="G6" s="108">
+        <v>1.8624375</v>
+      </c>
+      <c r="H6" s="108">
         <v>0</v>
       </c>
       <c r="I6" s="108">
         <v>0</v>
       </c>
-      <c r="J6" s="107">
-        <v>0</v>
-      </c>
-      <c r="K6" s="107">
-        <v>0</v>
-      </c>
-      <c r="L6" s="107">
-        <v>0</v>
-      </c>
-      <c r="M6" s="107">
+      <c r="J6" s="108">
+        <v>0</v>
+      </c>
+      <c r="K6" s="108">
+        <v>0</v>
+      </c>
+      <c r="L6" s="108">
+        <v>0</v>
+      </c>
+      <c r="M6" s="108">
         <v>0</v>
       </c>
       <c r="N6" s="108">
         <v>0</v>
       </c>
-      <c r="O6" s="107">
-        <v>0</v>
-      </c>
-      <c r="P6" s="107">
+      <c r="O6" s="108">
+        <v>0</v>
+      </c>
+      <c r="P6" s="108">
         <v>0</v>
       </c>
       <c r="Q6" s="108">
         <v>0</v>
       </c>
-      <c r="R6" s="107">
-        <v>0</v>
-      </c>
-      <c r="S6" s="107">
+      <c r="R6" s="108">
+        <v>0</v>
+      </c>
+      <c r="S6" s="108">
         <v>0</v>
       </c>
       <c r="T6" s="108">
         <v>0</v>
       </c>
-      <c r="U6" s="107">
-        <v>0</v>
-      </c>
-      <c r="V6" s="107">
-        <v>0</v>
-      </c>
-      <c r="W6" s="108">
-        <v>0</v>
-      </c>
-      <c r="X6" s="109">
-        <v>6.1445988478875009</v>
+      <c r="U6" s="108">
+        <v>0</v>
+      </c>
+      <c r="V6" s="108">
+        <v>0</v>
+      </c>
+      <c r="W6" s="113">
+        <v>1.8624375</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="12" customHeight="1">
-      <c r="A7" s="103" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="107">
+    <row r="7" spans="1:23">
+      <c r="A7" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="104">
         <v>0</v>
       </c>
       <c r="C7" s="107">
         <v>0</v>
       </c>
-      <c r="D7" s="108">
+      <c r="D7" s="107">
         <v>0</v>
       </c>
       <c r="E7" s="107">
         <v>0</v>
       </c>
-      <c r="F7" s="108">
-        <v>1.8624375</v>
+      <c r="F7" s="107">
+        <v>0</v>
       </c>
       <c r="G7" s="107">
         <v>0</v>
       </c>
       <c r="H7" s="107">
-        <v>0</v>
-      </c>
-      <c r="I7" s="108">
-        <v>0</v>
+        <v>13.89789918700969</v>
+      </c>
+      <c r="I7" s="107">
+        <v>0.31265180999999997</v>
       </c>
       <c r="J7" s="107">
         <v>0</v>
@@ -49760,7 +49728,7 @@
       <c r="M7" s="107">
         <v>0</v>
       </c>
-      <c r="N7" s="108">
+      <c r="N7" s="107">
         <v>0</v>
       </c>
       <c r="O7" s="107">
@@ -49769,7 +49737,7 @@
       <c r="P7" s="107">
         <v>0</v>
       </c>
-      <c r="Q7" s="108">
+      <c r="Q7" s="107">
         <v>0</v>
       </c>
       <c r="R7" s="107">
@@ -49778,7 +49746,7 @@
       <c r="S7" s="107">
         <v>0</v>
       </c>
-      <c r="T7" s="108">
+      <c r="T7" s="107">
         <v>0</v>
       </c>
       <c r="U7" s="107">
@@ -49787,1035 +49755,993 @@
       <c r="V7" s="107">
         <v>0</v>
       </c>
-      <c r="W7" s="108">
-        <v>0</v>
-      </c>
-      <c r="X7" s="109">
-        <v>1.8624375</v>
+      <c r="W7" s="110">
+        <v>14.21055099700969</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="12" customHeight="1">
-      <c r="A8" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="107">
+    <row r="8" spans="1:23">
+      <c r="A8" s="99" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="104">
         <v>0</v>
       </c>
       <c r="C8" s="107">
         <v>0</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D8" s="107">
         <v>0</v>
       </c>
       <c r="E8" s="107">
         <v>0</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="107">
         <v>0</v>
       </c>
       <c r="G8" s="107">
-        <v>13.89789918700969</v>
+        <v>0</v>
       </c>
       <c r="H8" s="107">
         <v>86.299826687537333</v>
       </c>
-      <c r="I8" s="108">
+      <c r="I8" s="107">
+        <v>30.503024717962649</v>
+      </c>
+      <c r="J8" s="107">
+        <v>0</v>
+      </c>
+      <c r="K8" s="107">
+        <v>0</v>
+      </c>
+      <c r="L8" s="107">
+        <v>0</v>
+      </c>
+      <c r="M8" s="107">
+        <v>0</v>
+      </c>
+      <c r="N8" s="107">
+        <v>0</v>
+      </c>
+      <c r="O8" s="107">
+        <v>0</v>
+      </c>
+      <c r="P8" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="107">
+        <v>0</v>
+      </c>
+      <c r="R8" s="107">
+        <v>0</v>
+      </c>
+      <c r="S8" s="107">
+        <v>0</v>
+      </c>
+      <c r="T8" s="107">
+        <v>0</v>
+      </c>
+      <c r="U8" s="107">
+        <v>0</v>
+      </c>
+      <c r="V8" s="107">
+        <v>0</v>
+      </c>
+      <c r="W8" s="110">
+        <v>116.80285140549999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="105">
+        <v>0</v>
+      </c>
+      <c r="C9" s="108">
+        <v>0</v>
+      </c>
+      <c r="D9" s="108">
+        <v>0</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0</v>
+      </c>
+      <c r="F9" s="108">
+        <v>0</v>
+      </c>
+      <c r="G9" s="108">
+        <v>0</v>
+      </c>
+      <c r="H9" s="108">
         <v>91.404497336666395</v>
-      </c>
-      <c r="J8" s="107">
-        <v>11.50964099242227</v>
-      </c>
-      <c r="K8" s="107">
-        <v>0</v>
-      </c>
-      <c r="L8" s="107">
-        <v>61.477432479049483</v>
-      </c>
-      <c r="M8" s="107">
-        <v>0</v>
-      </c>
-      <c r="N8" s="108">
-        <v>0</v>
-      </c>
-      <c r="O8" s="107">
-        <v>0</v>
-      </c>
-      <c r="P8" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="108">
-        <v>0</v>
-      </c>
-      <c r="R8" s="107">
-        <v>31.52105931273513</v>
-      </c>
-      <c r="S8" s="107">
-        <v>2.4945866700900901</v>
-      </c>
-      <c r="T8" s="108">
-        <v>0</v>
-      </c>
-      <c r="U8" s="107">
-        <v>0</v>
-      </c>
-      <c r="V8" s="107">
-        <v>0</v>
-      </c>
-      <c r="W8" s="108">
-        <v>0</v>
-      </c>
-      <c r="X8" s="109">
-        <v>298.60494266551041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="12" customHeight="1">
-      <c r="A9" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="107">
-        <v>0</v>
-      </c>
-      <c r="C9" s="107">
-        <v>0</v>
-      </c>
-      <c r="D9" s="108">
-        <v>0</v>
-      </c>
-      <c r="E9" s="107">
-        <v>0</v>
-      </c>
-      <c r="F9" s="108">
-        <v>0</v>
-      </c>
-      <c r="G9" s="107">
-        <v>0.31265180999999997</v>
-      </c>
-      <c r="H9" s="107">
-        <v>30.503024717962649</v>
       </c>
       <c r="I9" s="108">
         <v>5.2638653984892594</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="108">
+        <v>0</v>
+      </c>
+      <c r="K9" s="108">
+        <v>0</v>
+      </c>
+      <c r="L9" s="108">
+        <v>0</v>
+      </c>
+      <c r="M9" s="108">
+        <v>4.433333333325E-2</v>
+      </c>
+      <c r="N9" s="108">
+        <v>0</v>
+      </c>
+      <c r="O9" s="108">
+        <v>0</v>
+      </c>
+      <c r="P9" s="108">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="108">
+        <v>0.16935929999999999</v>
+      </c>
+      <c r="R9" s="108">
+        <v>0</v>
+      </c>
+      <c r="S9" s="108">
+        <v>0</v>
+      </c>
+      <c r="T9" s="108">
+        <v>0</v>
+      </c>
+      <c r="U9" s="108">
+        <v>0</v>
+      </c>
+      <c r="V9" s="108">
+        <v>0</v>
+      </c>
+      <c r="W9" s="113">
+        <v>96.882055368488878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="104">
+        <v>0</v>
+      </c>
+      <c r="C10" s="107">
+        <v>0</v>
+      </c>
+      <c r="D10" s="107">
+        <v>0</v>
+      </c>
+      <c r="E10" s="107">
+        <v>0</v>
+      </c>
+      <c r="F10" s="107">
+        <v>0</v>
+      </c>
+      <c r="G10" s="107">
+        <v>0</v>
+      </c>
+      <c r="H10" s="107">
+        <v>11.50964099242227</v>
+      </c>
+      <c r="I10" s="107">
         <v>10.8629619175</v>
       </c>
-      <c r="K9" s="107">
-        <v>0</v>
-      </c>
-      <c r="L9" s="107">
+      <c r="J10" s="107">
+        <v>0</v>
+      </c>
+      <c r="K10" s="107">
+        <v>0</v>
+      </c>
+      <c r="L10" s="107">
+        <v>0</v>
+      </c>
+      <c r="M10" s="107">
+        <v>0</v>
+      </c>
+      <c r="N10" s="107">
+        <v>0</v>
+      </c>
+      <c r="O10" s="107">
+        <v>0.167084225</v>
+      </c>
+      <c r="P10" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="107">
+        <v>0</v>
+      </c>
+      <c r="R10" s="107">
+        <v>0</v>
+      </c>
+      <c r="S10" s="107">
+        <v>0</v>
+      </c>
+      <c r="T10" s="107">
+        <v>0</v>
+      </c>
+      <c r="U10" s="107">
+        <v>0</v>
+      </c>
+      <c r="V10" s="107">
+        <v>0</v>
+      </c>
+      <c r="W10" s="110">
+        <v>22.539687134922261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="104">
+        <v>0</v>
+      </c>
+      <c r="C11" s="107">
+        <v>0</v>
+      </c>
+      <c r="D11" s="107">
+        <v>0</v>
+      </c>
+      <c r="E11" s="107">
+        <v>0</v>
+      </c>
+      <c r="F11" s="107">
+        <v>0</v>
+      </c>
+      <c r="G11" s="107">
+        <v>0</v>
+      </c>
+      <c r="H11" s="107">
+        <v>0</v>
+      </c>
+      <c r="I11" s="107">
+        <v>0</v>
+      </c>
+      <c r="J11" s="107">
+        <v>0</v>
+      </c>
+      <c r="K11" s="107">
+        <v>0</v>
+      </c>
+      <c r="L11" s="107">
+        <v>3.40032621878925</v>
+      </c>
+      <c r="M11" s="107">
+        <v>0</v>
+      </c>
+      <c r="N11" s="107">
+        <v>0</v>
+      </c>
+      <c r="O11" s="107">
+        <v>0</v>
+      </c>
+      <c r="P11" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="107">
+        <v>0</v>
+      </c>
+      <c r="R11" s="107">
+        <v>0</v>
+      </c>
+      <c r="S11" s="107">
+        <v>4.3732311249102498</v>
+      </c>
+      <c r="T11" s="107">
+        <v>0</v>
+      </c>
+      <c r="U11" s="107">
+        <v>0</v>
+      </c>
+      <c r="V11" s="107">
+        <v>0</v>
+      </c>
+      <c r="W11" s="110">
+        <v>7.7735573436994994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="104">
+        <v>0</v>
+      </c>
+      <c r="C12" s="107">
+        <v>0</v>
+      </c>
+      <c r="D12" s="107">
+        <v>0</v>
+      </c>
+      <c r="E12" s="107">
+        <v>0</v>
+      </c>
+      <c r="F12" s="107">
+        <v>0</v>
+      </c>
+      <c r="G12" s="107">
+        <v>0</v>
+      </c>
+      <c r="H12" s="107">
+        <v>61.477432479049483</v>
+      </c>
+      <c r="I12" s="107">
         <v>23.92735776943125</v>
       </c>
-      <c r="M9" s="107">
-        <v>0</v>
-      </c>
-      <c r="N9" s="108">
-        <v>0</v>
-      </c>
-      <c r="O9" s="107">
-        <v>9.0520141250000012</v>
-      </c>
-      <c r="P9" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="108">
-        <v>0</v>
-      </c>
-      <c r="R9" s="107">
-        <v>0</v>
-      </c>
-      <c r="S9" s="107">
-        <v>0</v>
-      </c>
-      <c r="T9" s="108">
-        <v>0</v>
-      </c>
-      <c r="U9" s="107">
-        <v>0</v>
-      </c>
-      <c r="V9" s="107">
-        <v>0</v>
-      </c>
-      <c r="W9" s="108">
-        <v>0</v>
-      </c>
-      <c r="X9" s="109">
-        <v>79.92187573838315</v>
+      <c r="J12" s="107">
+        <v>18.479093913333148</v>
+      </c>
+      <c r="K12" s="107">
+        <v>2.040546516401494</v>
+      </c>
+      <c r="L12" s="107">
+        <v>0</v>
+      </c>
+      <c r="M12" s="107">
+        <v>4.7530210735976439</v>
+      </c>
+      <c r="N12" s="107">
+        <v>0</v>
+      </c>
+      <c r="O12" s="107">
+        <v>0</v>
+      </c>
+      <c r="P12" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="107">
+        <v>0</v>
+      </c>
+      <c r="R12" s="107">
+        <v>0</v>
+      </c>
+      <c r="S12" s="107">
+        <v>14.669370698131811</v>
+      </c>
+      <c r="T12" s="107">
+        <v>0</v>
+      </c>
+      <c r="U12" s="107">
+        <v>0</v>
+      </c>
+      <c r="V12" s="107">
+        <v>0</v>
+      </c>
+      <c r="W12" s="110">
+        <v>125.3468224499448</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="12" customHeight="1">
-      <c r="A10" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="107">
-        <v>0</v>
-      </c>
-      <c r="C10" s="107">
-        <v>0</v>
-      </c>
-      <c r="D10" s="108">
-        <v>0</v>
-      </c>
-      <c r="E10" s="107">
-        <v>0</v>
-      </c>
-      <c r="F10" s="108">
-        <v>0</v>
-      </c>
-      <c r="G10" s="107">
-        <v>0</v>
-      </c>
-      <c r="H10" s="107">
-        <v>0</v>
-      </c>
-      <c r="I10" s="108">
-        <v>0</v>
-      </c>
-      <c r="J10" s="107">
-        <v>0</v>
-      </c>
-      <c r="K10" s="107">
-        <v>0</v>
-      </c>
-      <c r="L10" s="107">
-        <v>18.479093913333148</v>
-      </c>
-      <c r="M10" s="107">
-        <v>0</v>
-      </c>
-      <c r="N10" s="108">
-        <v>0</v>
-      </c>
-      <c r="O10" s="107">
-        <v>0</v>
-      </c>
-      <c r="P10" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="108">
-        <v>0</v>
-      </c>
-      <c r="R10" s="107">
-        <v>0</v>
-      </c>
-      <c r="S10" s="107">
-        <v>0</v>
-      </c>
-      <c r="T10" s="108">
-        <v>0</v>
-      </c>
-      <c r="U10" s="107">
-        <v>0</v>
-      </c>
-      <c r="V10" s="107">
-        <v>0</v>
-      </c>
-      <c r="W10" s="108">
-        <v>0</v>
-      </c>
-      <c r="X10" s="109">
-        <v>18.479093913333148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="12" customHeight="1">
-      <c r="A11" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="107">
-        <v>0</v>
-      </c>
-      <c r="C11" s="107">
-        <v>0</v>
-      </c>
-      <c r="D11" s="108">
-        <v>0</v>
-      </c>
-      <c r="E11" s="107">
-        <v>0</v>
-      </c>
-      <c r="F11" s="108">
-        <v>0</v>
-      </c>
-      <c r="G11" s="107">
-        <v>0</v>
-      </c>
-      <c r="H11" s="107">
-        <v>0</v>
-      </c>
-      <c r="I11" s="108">
-        <v>0</v>
-      </c>
-      <c r="J11" s="107">
-        <v>0</v>
-      </c>
-      <c r="K11" s="107">
-        <v>0</v>
-      </c>
-      <c r="L11" s="107">
-        <v>2.040546516401494</v>
-      </c>
-      <c r="M11" s="107">
+    <row r="13" spans="1:23">
+      <c r="A13" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="104">
+        <v>0</v>
+      </c>
+      <c r="C13" s="107">
+        <v>0</v>
+      </c>
+      <c r="D13" s="107">
+        <v>0</v>
+      </c>
+      <c r="E13" s="107">
+        <v>0</v>
+      </c>
+      <c r="F13" s="107">
+        <v>0</v>
+      </c>
+      <c r="G13" s="107">
+        <v>0</v>
+      </c>
+      <c r="H13" s="107">
+        <v>0</v>
+      </c>
+      <c r="I13" s="107">
+        <v>0</v>
+      </c>
+      <c r="J13" s="107">
+        <v>0</v>
+      </c>
+      <c r="K13" s="107">
         <v>0.34457030481809342</v>
       </c>
-      <c r="N11" s="108">
-        <v>0</v>
-      </c>
-      <c r="O11" s="107">
-        <v>0</v>
-      </c>
-      <c r="P11" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="108">
-        <v>0</v>
-      </c>
-      <c r="R11" s="107">
-        <v>0</v>
-      </c>
-      <c r="S11" s="107">
-        <v>0</v>
-      </c>
-      <c r="T11" s="108">
-        <v>0</v>
-      </c>
-      <c r="U11" s="107">
-        <v>0</v>
-      </c>
-      <c r="V11" s="107">
-        <v>0</v>
-      </c>
-      <c r="W11" s="108">
-        <v>0</v>
-      </c>
-      <c r="X11" s="109">
-        <v>2.3851168212195879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="12" customHeight="1">
-      <c r="A12" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="107">
-        <v>0</v>
-      </c>
-      <c r="C12" s="107">
-        <v>0</v>
-      </c>
-      <c r="D12" s="108">
-        <v>0</v>
-      </c>
-      <c r="E12" s="107">
-        <v>0</v>
-      </c>
-      <c r="F12" s="108">
-        <v>0</v>
-      </c>
-      <c r="G12" s="107">
-        <v>0</v>
-      </c>
-      <c r="H12" s="107">
-        <v>0</v>
-      </c>
-      <c r="I12" s="108">
-        <v>0</v>
-      </c>
-      <c r="J12" s="107">
-        <v>0</v>
-      </c>
-      <c r="K12" s="107">
-        <v>3.40032621878925</v>
-      </c>
-      <c r="L12" s="107">
-        <v>0</v>
-      </c>
-      <c r="M12" s="107">
+      <c r="L13" s="107">
         <v>4.7320550639134851</v>
-      </c>
-      <c r="N12" s="108">
-        <v>0</v>
-      </c>
-      <c r="O12" s="107">
-        <v>0</v>
-      </c>
-      <c r="P12" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="108">
-        <v>0</v>
-      </c>
-      <c r="R12" s="107">
-        <v>0</v>
-      </c>
-      <c r="S12" s="107">
-        <v>0</v>
-      </c>
-      <c r="T12" s="108">
-        <v>0</v>
-      </c>
-      <c r="U12" s="107">
-        <v>0</v>
-      </c>
-      <c r="V12" s="107">
-        <v>0</v>
-      </c>
-      <c r="W12" s="108">
-        <v>0</v>
-      </c>
-      <c r="X12" s="109">
-        <v>8.1323812827027346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="12" customHeight="1">
-      <c r="A13" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="107">
-        <v>0</v>
-      </c>
-      <c r="C13" s="107">
-        <v>0</v>
-      </c>
-      <c r="D13" s="108">
-        <v>0</v>
-      </c>
-      <c r="E13" s="107">
-        <v>0</v>
-      </c>
-      <c r="F13" s="108">
-        <v>0</v>
-      </c>
-      <c r="G13" s="107">
-        <v>0</v>
-      </c>
-      <c r="H13" s="107">
-        <v>0</v>
-      </c>
-      <c r="I13" s="108">
-        <v>4.433333333325E-2</v>
-      </c>
-      <c r="J13" s="107">
-        <v>0</v>
-      </c>
-      <c r="K13" s="107">
-        <v>0</v>
-      </c>
-      <c r="L13" s="107">
-        <v>4.7530210735976439</v>
       </c>
       <c r="M13" s="107">
         <v>2.7641488592969581</v>
       </c>
-      <c r="N13" s="108">
+      <c r="N13" s="107">
+        <v>0</v>
+      </c>
+      <c r="O13" s="107">
+        <v>0</v>
+      </c>
+      <c r="P13" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="107">
+        <v>0</v>
+      </c>
+      <c r="R13" s="107">
+        <v>0</v>
+      </c>
+      <c r="S13" s="107">
+        <v>32.890981596563748</v>
+      </c>
+      <c r="T13" s="107">
+        <v>0</v>
+      </c>
+      <c r="U13" s="107">
+        <v>0</v>
+      </c>
+      <c r="V13" s="107">
+        <v>0</v>
+      </c>
+      <c r="W13" s="110">
+        <v>40.731755824592277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="105">
+        <v>0</v>
+      </c>
+      <c r="C14" s="108">
+        <v>0</v>
+      </c>
+      <c r="D14" s="108">
+        <v>0</v>
+      </c>
+      <c r="E14" s="108">
+        <v>0</v>
+      </c>
+      <c r="F14" s="108">
+        <v>0</v>
+      </c>
+      <c r="G14" s="108">
+        <v>0</v>
+      </c>
+      <c r="H14" s="108">
+        <v>0</v>
+      </c>
+      <c r="I14" s="108">
+        <v>0</v>
+      </c>
+      <c r="J14" s="108">
+        <v>0</v>
+      </c>
+      <c r="K14" s="108">
+        <v>0</v>
+      </c>
+      <c r="L14" s="108">
+        <v>0</v>
+      </c>
+      <c r="M14" s="108">
         <v>2.5560324954986571E-2</v>
       </c>
-      <c r="O13" s="107">
+      <c r="N14" s="108">
+        <v>0</v>
+      </c>
+      <c r="O14" s="108">
+        <v>0</v>
+      </c>
+      <c r="P14" s="108">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="108">
+        <v>0</v>
+      </c>
+      <c r="R14" s="108">
+        <v>0</v>
+      </c>
+      <c r="S14" s="108">
+        <v>2.4918244388800801</v>
+      </c>
+      <c r="T14" s="108">
+        <v>0</v>
+      </c>
+      <c r="U14" s="108">
+        <v>0</v>
+      </c>
+      <c r="V14" s="108">
+        <v>0</v>
+      </c>
+      <c r="W14" s="113">
+        <v>2.5173847638350662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="104">
+        <v>0</v>
+      </c>
+      <c r="C15" s="107">
+        <v>0</v>
+      </c>
+      <c r="D15" s="107">
+        <v>0</v>
+      </c>
+      <c r="E15" s="107">
+        <v>0</v>
+      </c>
+      <c r="F15" s="107">
+        <v>0</v>
+      </c>
+      <c r="G15" s="107">
+        <v>0</v>
+      </c>
+      <c r="H15" s="107">
+        <v>0</v>
+      </c>
+      <c r="I15" s="107">
+        <v>9.0520141250000012</v>
+      </c>
+      <c r="J15" s="107">
+        <v>0</v>
+      </c>
+      <c r="K15" s="107">
+        <v>0</v>
+      </c>
+      <c r="L15" s="107">
+        <v>0</v>
+      </c>
+      <c r="M15" s="107">
         <v>0.38596160882799069</v>
       </c>
-      <c r="P13" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="108">
-        <v>0</v>
-      </c>
-      <c r="R13" s="107">
-        <v>0</v>
-      </c>
-      <c r="S13" s="107">
-        <v>0</v>
-      </c>
-      <c r="T13" s="108">
-        <v>0</v>
-      </c>
-      <c r="U13" s="107">
-        <v>0</v>
-      </c>
-      <c r="V13" s="107">
-        <v>0</v>
-      </c>
-      <c r="W13" s="108">
-        <v>0</v>
-      </c>
-      <c r="X13" s="109">
-        <v>7.973025200010829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="12" customHeight="1">
-      <c r="A14" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="107">
-        <v>0</v>
-      </c>
-      <c r="C14" s="107">
-        <v>0</v>
-      </c>
-      <c r="D14" s="108">
-        <v>0</v>
-      </c>
-      <c r="E14" s="107">
-        <v>0</v>
-      </c>
-      <c r="F14" s="108">
-        <v>0</v>
-      </c>
-      <c r="G14" s="107">
-        <v>0</v>
-      </c>
-      <c r="H14" s="107">
-        <v>0</v>
-      </c>
-      <c r="I14" s="108">
-        <v>0</v>
-      </c>
-      <c r="J14" s="107">
-        <v>0</v>
-      </c>
-      <c r="K14" s="107">
-        <v>0</v>
-      </c>
-      <c r="L14" s="107">
-        <v>0</v>
-      </c>
-      <c r="M14" s="107">
-        <v>0</v>
-      </c>
-      <c r="N14" s="108">
-        <v>0</v>
-      </c>
-      <c r="O14" s="107">
-        <v>0</v>
-      </c>
-      <c r="P14" s="107">
-        <v>18.524529164824219</v>
-      </c>
-      <c r="Q14" s="108">
-        <v>0</v>
-      </c>
-      <c r="R14" s="107">
-        <v>0</v>
-      </c>
-      <c r="S14" s="107">
-        <v>0</v>
-      </c>
-      <c r="T14" s="108">
-        <v>0</v>
-      </c>
-      <c r="U14" s="107">
-        <v>0</v>
-      </c>
-      <c r="V14" s="107">
-        <v>0</v>
-      </c>
-      <c r="W14" s="108">
-        <v>0</v>
-      </c>
-      <c r="X14" s="109">
-        <v>18.524529164824219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="12" customHeight="1">
-      <c r="A15" s="103" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="107">
-        <v>0</v>
-      </c>
-      <c r="C15" s="107">
-        <v>0</v>
-      </c>
-      <c r="D15" s="108">
-        <v>0</v>
-      </c>
-      <c r="E15" s="107">
-        <v>0</v>
-      </c>
-      <c r="F15" s="108">
-        <v>0</v>
-      </c>
-      <c r="G15" s="107">
-        <v>0</v>
-      </c>
-      <c r="H15" s="107">
-        <v>0</v>
-      </c>
-      <c r="I15" s="108">
-        <v>0</v>
-      </c>
-      <c r="J15" s="107">
-        <v>0.167084225</v>
-      </c>
-      <c r="K15" s="107">
-        <v>0</v>
-      </c>
-      <c r="L15" s="107">
-        <v>0</v>
-      </c>
-      <c r="M15" s="107">
-        <v>0</v>
-      </c>
-      <c r="N15" s="108">
+      <c r="N15" s="107">
         <v>0</v>
       </c>
       <c r="O15" s="107">
         <v>9.4382832561693757</v>
       </c>
       <c r="P15" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="107">
+        <v>0</v>
+      </c>
+      <c r="R15" s="107">
+        <v>0</v>
+      </c>
+      <c r="S15" s="107">
+        <v>0</v>
+      </c>
+      <c r="T15" s="107">
+        <v>0</v>
+      </c>
+      <c r="U15" s="107">
+        <v>0</v>
+      </c>
+      <c r="V15" s="107">
+        <v>0</v>
+      </c>
+      <c r="W15" s="110">
+        <v>18.876258989997371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="104">
+        <v>0</v>
+      </c>
+      <c r="C16" s="107">
+        <v>0</v>
+      </c>
+      <c r="D16" s="107">
+        <v>0</v>
+      </c>
+      <c r="E16" s="107">
+        <v>0</v>
+      </c>
+      <c r="F16" s="107">
+        <v>0</v>
+      </c>
+      <c r="G16" s="107">
+        <v>0</v>
+      </c>
+      <c r="H16" s="107">
+        <v>0</v>
+      </c>
+      <c r="I16" s="107">
+        <v>0</v>
+      </c>
+      <c r="J16" s="107">
+        <v>0</v>
+      </c>
+      <c r="K16" s="107">
+        <v>0</v>
+      </c>
+      <c r="L16" s="107">
+        <v>0</v>
+      </c>
+      <c r="M16" s="107">
+        <v>0</v>
+      </c>
+      <c r="N16" s="107">
+        <v>18.524529164824219</v>
+      </c>
+      <c r="O16" s="107">
         <v>1.5916901385</v>
       </c>
-      <c r="Q15" s="108">
+      <c r="P16" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="107">
+        <v>0</v>
+      </c>
+      <c r="R16" s="107">
+        <v>0</v>
+      </c>
+      <c r="S16" s="107">
+        <v>0</v>
+      </c>
+      <c r="T16" s="107">
+        <v>0</v>
+      </c>
+      <c r="U16" s="107">
+        <v>0</v>
+      </c>
+      <c r="V16" s="107">
+        <v>0</v>
+      </c>
+      <c r="W16" s="110">
+        <v>20.116219303324218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="105">
+        <v>0</v>
+      </c>
+      <c r="C17" s="108">
+        <v>0</v>
+      </c>
+      <c r="D17" s="108">
+        <v>0</v>
+      </c>
+      <c r="E17" s="108">
+        <v>0</v>
+      </c>
+      <c r="F17" s="108">
+        <v>0</v>
+      </c>
+      <c r="G17" s="108">
+        <v>0</v>
+      </c>
+      <c r="H17" s="108">
+        <v>0</v>
+      </c>
+      <c r="I17" s="108">
+        <v>0</v>
+      </c>
+      <c r="J17" s="108">
+        <v>0</v>
+      </c>
+      <c r="K17" s="108">
+        <v>0</v>
+      </c>
+      <c r="L17" s="108">
+        <v>0</v>
+      </c>
+      <c r="M17" s="108">
+        <v>0</v>
+      </c>
+      <c r="N17" s="108">
+        <v>0</v>
+      </c>
+      <c r="O17" s="108">
         <v>2.7527499999999998</v>
       </c>
-      <c r="R15" s="107">
-        <v>0</v>
-      </c>
-      <c r="S15" s="107">
-        <v>0</v>
-      </c>
-      <c r="T15" s="108">
-        <v>0.87724999999999997</v>
-      </c>
-      <c r="U15" s="107">
-        <v>0</v>
-      </c>
-      <c r="V15" s="107">
-        <v>0</v>
-      </c>
-      <c r="W15" s="108">
-        <v>0</v>
-      </c>
-      <c r="X15" s="109">
-        <v>14.827057619669381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="12" customHeight="1">
-      <c r="A16" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="107">
-        <v>0</v>
-      </c>
-      <c r="C16" s="107">
-        <v>0</v>
-      </c>
-      <c r="D16" s="108">
-        <v>0</v>
-      </c>
-      <c r="E16" s="107">
-        <v>0</v>
-      </c>
-      <c r="F16" s="108">
-        <v>0</v>
-      </c>
-      <c r="G16" s="107">
-        <v>0</v>
-      </c>
-      <c r="H16" s="107">
-        <v>0</v>
-      </c>
-      <c r="I16" s="108">
-        <v>0</v>
-      </c>
-      <c r="J16" s="107">
-        <v>0</v>
-      </c>
-      <c r="K16" s="107">
-        <v>0</v>
-      </c>
-      <c r="L16" s="107">
-        <v>0</v>
-      </c>
-      <c r="M16" s="107">
-        <v>0</v>
-      </c>
-      <c r="N16" s="108">
-        <v>0</v>
-      </c>
-      <c r="O16" s="107">
-        <v>0</v>
-      </c>
-      <c r="P16" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="108">
-        <v>0</v>
-      </c>
-      <c r="R16" s="107">
-        <v>0</v>
-      </c>
-      <c r="S16" s="107">
-        <v>0</v>
-      </c>
-      <c r="T16" s="108">
-        <v>3.6031067861249988</v>
-      </c>
-      <c r="U16" s="107">
-        <v>0</v>
-      </c>
-      <c r="V16" s="107">
-        <v>0</v>
-      </c>
-      <c r="W16" s="108">
-        <v>0</v>
-      </c>
-      <c r="X16" s="109">
-        <v>3.6031067861249988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="12" customHeight="1">
-      <c r="A17" s="103" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="107">
-        <v>0</v>
-      </c>
-      <c r="C17" s="107">
-        <v>0</v>
-      </c>
-      <c r="D17" s="108">
-        <v>0</v>
-      </c>
-      <c r="E17" s="107">
-        <v>0</v>
-      </c>
-      <c r="F17" s="108">
-        <v>0</v>
-      </c>
-      <c r="G17" s="107">
-        <v>0</v>
-      </c>
-      <c r="H17" s="107">
-        <v>0</v>
-      </c>
-      <c r="I17" s="108">
-        <v>0.16935929999999999</v>
-      </c>
-      <c r="J17" s="107">
-        <v>0</v>
-      </c>
-      <c r="K17" s="107">
-        <v>0</v>
-      </c>
-      <c r="L17" s="107">
-        <v>0</v>
-      </c>
-      <c r="M17" s="107">
-        <v>0</v>
-      </c>
-      <c r="N17" s="108">
-        <v>0</v>
-      </c>
-      <c r="O17" s="107">
-        <v>0</v>
-      </c>
-      <c r="P17" s="107">
+      <c r="P17" s="108">
         <v>0</v>
       </c>
       <c r="Q17" s="108">
         <v>6.0733750000000013</v>
       </c>
-      <c r="R17" s="107">
+      <c r="R17" s="108">
+        <v>0</v>
+      </c>
+      <c r="S17" s="108">
+        <v>0</v>
+      </c>
+      <c r="T17" s="108">
+        <v>0</v>
+      </c>
+      <c r="U17" s="108">
+        <v>0</v>
+      </c>
+      <c r="V17" s="108">
+        <v>0</v>
+      </c>
+      <c r="W17" s="113">
+        <v>8.8261250000000011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="104">
+        <v>0</v>
+      </c>
+      <c r="C18" s="107">
+        <v>0</v>
+      </c>
+      <c r="D18" s="107">
+        <v>0</v>
+      </c>
+      <c r="E18" s="107">
+        <v>0</v>
+      </c>
+      <c r="F18" s="107">
+        <v>0</v>
+      </c>
+      <c r="G18" s="107">
+        <v>0</v>
+      </c>
+      <c r="H18" s="107">
+        <v>31.52105931273513</v>
+      </c>
+      <c r="I18" s="107">
+        <v>0</v>
+      </c>
+      <c r="J18" s="107">
+        <v>0</v>
+      </c>
+      <c r="K18" s="107">
+        <v>0</v>
+      </c>
+      <c r="L18" s="107">
+        <v>0</v>
+      </c>
+      <c r="M18" s="107">
+        <v>0</v>
+      </c>
+      <c r="N18" s="107">
+        <v>0</v>
+      </c>
+      <c r="O18" s="107">
+        <v>0</v>
+      </c>
+      <c r="P18" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="107">
         <v>3.968156</v>
       </c>
-      <c r="S17" s="107">
-        <v>0</v>
-      </c>
-      <c r="T17" s="108">
+      <c r="R18" s="107">
+        <v>0</v>
+      </c>
+      <c r="S18" s="107">
+        <v>0</v>
+      </c>
+      <c r="T18" s="107">
+        <v>0</v>
+      </c>
+      <c r="U18" s="107">
+        <v>0</v>
+      </c>
+      <c r="V18" s="107">
+        <v>0</v>
+      </c>
+      <c r="W18" s="110">
+        <v>35.489215312735134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="104">
+        <v>0</v>
+      </c>
+      <c r="C19" s="107">
+        <v>0</v>
+      </c>
+      <c r="D19" s="107">
+        <v>0</v>
+      </c>
+      <c r="E19" s="107">
+        <v>0</v>
+      </c>
+      <c r="F19" s="107">
+        <v>0</v>
+      </c>
+      <c r="G19" s="107">
+        <v>0</v>
+      </c>
+      <c r="H19" s="107">
+        <v>2.4945866700900901</v>
+      </c>
+      <c r="I19" s="107">
+        <v>0</v>
+      </c>
+      <c r="J19" s="107">
+        <v>0</v>
+      </c>
+      <c r="K19" s="107">
+        <v>0</v>
+      </c>
+      <c r="L19" s="107">
+        <v>0</v>
+      </c>
+      <c r="M19" s="107">
+        <v>0</v>
+      </c>
+      <c r="N19" s="107">
+        <v>0</v>
+      </c>
+      <c r="O19" s="107">
+        <v>0</v>
+      </c>
+      <c r="P19" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="107">
+        <v>0</v>
+      </c>
+      <c r="R19" s="107">
+        <v>0</v>
+      </c>
+      <c r="S19" s="107">
+        <v>0</v>
+      </c>
+      <c r="T19" s="107">
+        <v>0</v>
+      </c>
+      <c r="U19" s="107">
+        <v>0</v>
+      </c>
+      <c r="V19" s="107">
+        <v>0</v>
+      </c>
+      <c r="W19" s="110">
+        <v>2.4945866700900901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="105">
+        <v>0</v>
+      </c>
+      <c r="C20" s="108">
+        <v>0</v>
+      </c>
+      <c r="D20" s="108">
+        <v>0</v>
+      </c>
+      <c r="E20" s="108">
+        <v>0</v>
+      </c>
+      <c r="F20" s="108">
+        <v>0</v>
+      </c>
+      <c r="G20" s="108">
+        <v>0</v>
+      </c>
+      <c r="H20" s="108">
+        <v>0</v>
+      </c>
+      <c r="I20" s="108">
+        <v>0</v>
+      </c>
+      <c r="J20" s="108">
+        <v>0</v>
+      </c>
+      <c r="K20" s="108">
+        <v>0</v>
+      </c>
+      <c r="L20" s="108">
+        <v>0</v>
+      </c>
+      <c r="M20" s="108">
+        <v>0</v>
+      </c>
+      <c r="N20" s="108">
+        <v>0</v>
+      </c>
+      <c r="O20" s="108">
+        <v>0.87724999999999997</v>
+      </c>
+      <c r="P20" s="108">
+        <v>3.6031067861249988</v>
+      </c>
+      <c r="Q20" s="108">
         <v>1.025713878159402</v>
       </c>
-      <c r="U17" s="107">
-        <v>0</v>
-      </c>
-      <c r="V17" s="107">
-        <v>0</v>
-      </c>
-      <c r="W17" s="108">
-        <v>0</v>
-      </c>
-      <c r="X17" s="109">
-        <v>11.2366041781594</v>
+      <c r="R20" s="108">
+        <v>0</v>
+      </c>
+      <c r="S20" s="108">
+        <v>0</v>
+      </c>
+      <c r="T20" s="108">
+        <v>0</v>
+      </c>
+      <c r="U20" s="108">
+        <v>0</v>
+      </c>
+      <c r="V20" s="108">
+        <v>0</v>
+      </c>
+      <c r="W20" s="113">
+        <v>5.5060706642844011</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="12" customHeight="1">
-      <c r="A18" s="103" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="107">
-        <v>0</v>
-      </c>
-      <c r="C18" s="107">
-        <v>0</v>
-      </c>
-      <c r="D18" s="108">
-        <v>0</v>
-      </c>
-      <c r="E18" s="107">
-        <v>0</v>
-      </c>
-      <c r="F18" s="108">
-        <v>0</v>
-      </c>
-      <c r="G18" s="107">
-        <v>0</v>
-      </c>
-      <c r="H18" s="107">
-        <v>0</v>
-      </c>
-      <c r="I18" s="108">
-        <v>0</v>
-      </c>
-      <c r="J18" s="107">
-        <v>0</v>
-      </c>
-      <c r="K18" s="107">
-        <v>0</v>
-      </c>
-      <c r="L18" s="107">
-        <v>0</v>
-      </c>
-      <c r="M18" s="107">
-        <v>0</v>
-      </c>
-      <c r="N18" s="108">
-        <v>0</v>
-      </c>
-      <c r="O18" s="107">
-        <v>0</v>
-      </c>
-      <c r="P18" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="108">
-        <v>0</v>
-      </c>
-      <c r="R18" s="107">
-        <v>0</v>
-      </c>
-      <c r="S18" s="107">
-        <v>0</v>
-      </c>
-      <c r="T18" s="108">
-        <v>0</v>
-      </c>
-      <c r="U18" s="107">
-        <v>0</v>
-      </c>
-      <c r="V18" s="107">
-        <v>0</v>
-      </c>
-      <c r="W18" s="108">
-        <v>4.7788294446622501</v>
-      </c>
-      <c r="X18" s="109">
-        <v>4.7788294446622501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="12" customHeight="1">
-      <c r="A19" s="103" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="107">
-        <v>0</v>
-      </c>
-      <c r="C19" s="107">
-        <v>0</v>
-      </c>
-      <c r="D19" s="108">
-        <v>0</v>
-      </c>
-      <c r="E19" s="107">
-        <v>0</v>
-      </c>
-      <c r="F19" s="108">
-        <v>0</v>
-      </c>
-      <c r="G19" s="107">
-        <v>0</v>
-      </c>
-      <c r="H19" s="107">
-        <v>0</v>
-      </c>
-      <c r="I19" s="108">
-        <v>0</v>
-      </c>
-      <c r="J19" s="107">
-        <v>0</v>
-      </c>
-      <c r="K19" s="107">
-        <v>4.3732311249102498</v>
-      </c>
-      <c r="L19" s="107">
-        <v>14.669370698131811</v>
-      </c>
-      <c r="M19" s="107">
-        <v>32.890981596563748</v>
-      </c>
-      <c r="N19" s="108">
-        <v>2.4918244388800801</v>
-      </c>
-      <c r="O19" s="107">
-        <v>0</v>
-      </c>
-      <c r="P19" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="108">
-        <v>0</v>
-      </c>
-      <c r="R19" s="107">
-        <v>0</v>
-      </c>
-      <c r="S19" s="107">
-        <v>0</v>
-      </c>
-      <c r="T19" s="108">
-        <v>0</v>
-      </c>
-      <c r="U19" s="107">
-        <v>0</v>
-      </c>
-      <c r="V19" s="107">
-        <v>3.9762639666142499</v>
-      </c>
-      <c r="W19" s="108">
-        <v>0</v>
-      </c>
-      <c r="X19" s="109">
-        <v>58.401671825100138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="12" customHeight="1">
-      <c r="A20" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="107">
-        <v>0</v>
-      </c>
-      <c r="C20" s="107">
-        <v>0</v>
-      </c>
-      <c r="D20" s="108">
-        <v>0</v>
-      </c>
-      <c r="E20" s="107">
-        <v>0</v>
-      </c>
-      <c r="F20" s="108">
-        <v>0</v>
-      </c>
-      <c r="G20" s="107">
-        <v>0</v>
-      </c>
-      <c r="H20" s="107">
-        <v>0</v>
-      </c>
-      <c r="I20" s="108">
-        <v>0</v>
-      </c>
-      <c r="J20" s="107">
-        <v>0</v>
-      </c>
-      <c r="K20" s="107">
-        <v>0</v>
-      </c>
-      <c r="L20" s="107">
-        <v>0</v>
-      </c>
-      <c r="M20" s="107">
-        <v>0</v>
-      </c>
-      <c r="N20" s="108">
-        <v>0</v>
-      </c>
-      <c r="O20" s="107">
-        <v>0</v>
-      </c>
-      <c r="P20" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="108">
-        <v>0</v>
-      </c>
-      <c r="R20" s="107">
-        <v>0</v>
-      </c>
-      <c r="S20" s="107">
-        <v>0</v>
-      </c>
-      <c r="T20" s="108">
-        <v>0</v>
-      </c>
-      <c r="U20" s="107">
+    <row r="21" spans="1:23">
+      <c r="A21" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="104">
+        <v>0</v>
+      </c>
+      <c r="C21" s="107">
+        <v>0</v>
+      </c>
+      <c r="D21" s="107">
+        <v>0</v>
+      </c>
+      <c r="E21" s="107">
+        <v>0</v>
+      </c>
+      <c r="F21" s="107">
+        <v>0</v>
+      </c>
+      <c r="G21" s="107">
+        <v>0</v>
+      </c>
+      <c r="H21" s="107">
+        <v>0</v>
+      </c>
+      <c r="I21" s="107">
+        <v>0</v>
+      </c>
+      <c r="J21" s="107">
+        <v>0</v>
+      </c>
+      <c r="K21" s="107">
+        <v>0</v>
+      </c>
+      <c r="L21" s="107">
+        <v>0</v>
+      </c>
+      <c r="M21" s="107">
+        <v>0</v>
+      </c>
+      <c r="N21" s="107">
+        <v>0</v>
+      </c>
+      <c r="O21" s="107">
+        <v>0</v>
+      </c>
+      <c r="P21" s="107">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="107">
+        <v>0</v>
+      </c>
+      <c r="R21" s="107">
+        <v>0</v>
+      </c>
+      <c r="S21" s="107">
+        <v>0</v>
+      </c>
+      <c r="T21" s="107">
         <v>0.23904210000000001</v>
-      </c>
-      <c r="V20" s="107">
-        <v>0</v>
-      </c>
-      <c r="W20" s="108">
-        <v>0</v>
-      </c>
-      <c r="X20" s="109">
-        <v>0.23904210000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="12" customHeight="1">
-      <c r="A21" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="107">
-        <v>0</v>
-      </c>
-      <c r="C21" s="107">
-        <v>0</v>
-      </c>
-      <c r="D21" s="108">
-        <v>0</v>
-      </c>
-      <c r="E21" s="107">
-        <v>0</v>
-      </c>
-      <c r="F21" s="108">
-        <v>0</v>
-      </c>
-      <c r="G21" s="107">
-        <v>0</v>
-      </c>
-      <c r="H21" s="107">
-        <v>0</v>
-      </c>
-      <c r="I21" s="108">
-        <v>0</v>
-      </c>
-      <c r="J21" s="107">
-        <v>0</v>
-      </c>
-      <c r="K21" s="107">
-        <v>0</v>
-      </c>
-      <c r="L21" s="107">
-        <v>0</v>
-      </c>
-      <c r="M21" s="107">
-        <v>0</v>
-      </c>
-      <c r="N21" s="108">
-        <v>0</v>
-      </c>
-      <c r="O21" s="107">
-        <v>0</v>
-      </c>
-      <c r="P21" s="107">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="108">
-        <v>0</v>
-      </c>
-      <c r="R21" s="107">
-        <v>0</v>
-      </c>
-      <c r="S21" s="107">
-        <v>0</v>
-      </c>
-      <c r="T21" s="108">
-        <v>0</v>
       </c>
       <c r="U21" s="107">
         <v>6.0316403962500003</v>
@@ -50823,30 +50749,27 @@
       <c r="V21" s="107">
         <v>0</v>
       </c>
-      <c r="W21" s="108">
-        <v>2.1651362188499998</v>
-      </c>
-      <c r="X21" s="109">
-        <v>8.196776615100001</v>
+      <c r="W21" s="110">
+        <v>6.2706824962500001</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="12" customHeight="1">
-      <c r="A22" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="107">
+    <row r="22" spans="1:23">
+      <c r="A22" s="100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="104">
         <v>0</v>
       </c>
       <c r="C22" s="107">
         <v>0</v>
       </c>
-      <c r="D22" s="108">
+      <c r="D22" s="107">
         <v>0</v>
       </c>
       <c r="E22" s="107">
         <v>0</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="107">
         <v>0</v>
       </c>
       <c r="G22" s="107">
@@ -50855,7 +50778,7 @@
       <c r="H22" s="107">
         <v>0</v>
       </c>
-      <c r="I22" s="108">
+      <c r="I22" s="107">
         <v>0</v>
       </c>
       <c r="J22" s="107">
@@ -50870,7 +50793,7 @@
       <c r="M22" s="107">
         <v>0</v>
       </c>
-      <c r="N22" s="108">
+      <c r="N22" s="107">
         <v>0</v>
       </c>
       <c r="O22" s="107">
@@ -50879,16 +50802,16 @@
       <c r="P22" s="107">
         <v>0</v>
       </c>
-      <c r="Q22" s="108">
+      <c r="Q22" s="107">
         <v>0</v>
       </c>
       <c r="R22" s="107">
         <v>0</v>
       </c>
       <c r="S22" s="107">
-        <v>0</v>
-      </c>
-      <c r="T22" s="108">
+        <v>3.9762639666142499</v>
+      </c>
+      <c r="T22" s="107">
         <v>0</v>
       </c>
       <c r="U22" s="107">
@@ -50897,90 +50820,150 @@
       <c r="V22" s="107">
         <v>6.5851318966639614</v>
       </c>
-      <c r="W22" s="108">
-        <v>0</v>
-      </c>
-      <c r="X22" s="109">
-        <v>6.5851318966639614</v>
+      <c r="W22" s="110">
+        <v>10.561395863278211</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="12" customHeight="1">
-      <c r="A23" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="110">
-        <v>82.051382136950195</v>
-      </c>
-      <c r="C23" s="110">
-        <v>2.8999286084999999E-2</v>
-      </c>
-      <c r="D23" s="113">
-        <v>82.690810152142504</v>
-      </c>
-      <c r="E23" s="110">
-        <v>9.8357863478875007</v>
-      </c>
-      <c r="F23" s="113">
-        <v>1.8624375</v>
-      </c>
-      <c r="G23" s="110">
-        <v>14.21055099700969</v>
-      </c>
-      <c r="H23" s="110">
-        <v>116.80285140549999</v>
-      </c>
-      <c r="I23" s="113">
-        <v>96.882055368488878</v>
-      </c>
-      <c r="J23" s="110">
-        <v>22.539687134922261</v>
-      </c>
-      <c r="K23" s="110">
-        <v>7.7735573436994994</v>
-      </c>
-      <c r="L23" s="110">
-        <v>125.3468224499448</v>
-      </c>
-      <c r="M23" s="110">
-        <v>40.731755824592277</v>
-      </c>
-      <c r="N23" s="113">
-        <v>2.5173847638350662</v>
-      </c>
-      <c r="O23" s="110">
-        <v>18.876258989997371</v>
-      </c>
-      <c r="P23" s="110">
-        <v>20.116219303324218</v>
-      </c>
-      <c r="Q23" s="113">
-        <v>8.8261250000000011</v>
-      </c>
-      <c r="R23" s="110">
-        <v>35.489215312735134</v>
-      </c>
-      <c r="S23" s="110">
-        <v>2.4945866700900901</v>
-      </c>
-      <c r="T23" s="113">
-        <v>5.5060706642844011</v>
-      </c>
-      <c r="U23" s="110">
-        <v>6.2706824962500001</v>
-      </c>
-      <c r="V23" s="110">
-        <v>10.561395863278211</v>
+    <row r="23" spans="1:23">
+      <c r="A23" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="105">
+        <v>0</v>
+      </c>
+      <c r="C23" s="108">
+        <v>0</v>
+      </c>
+      <c r="D23" s="108">
+        <v>0</v>
+      </c>
+      <c r="E23" s="108">
+        <v>0</v>
+      </c>
+      <c r="F23" s="108">
+        <v>0</v>
+      </c>
+      <c r="G23" s="108">
+        <v>0</v>
+      </c>
+      <c r="H23" s="108">
+        <v>0</v>
+      </c>
+      <c r="I23" s="108">
+        <v>0</v>
+      </c>
+      <c r="J23" s="108">
+        <v>0</v>
+      </c>
+      <c r="K23" s="108">
+        <v>0</v>
+      </c>
+      <c r="L23" s="108">
+        <v>0</v>
+      </c>
+      <c r="M23" s="108">
+        <v>0</v>
+      </c>
+      <c r="N23" s="108">
+        <v>0</v>
+      </c>
+      <c r="O23" s="108">
+        <v>0</v>
+      </c>
+      <c r="P23" s="108">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="108">
+        <v>0</v>
+      </c>
+      <c r="R23" s="108">
+        <v>4.7788294446622501</v>
+      </c>
+      <c r="S23" s="108">
+        <v>0</v>
+      </c>
+      <c r="T23" s="108">
+        <v>0</v>
+      </c>
+      <c r="U23" s="108">
+        <v>2.1651362188499998</v>
+      </c>
+      <c r="V23" s="108">
+        <v>0</v>
       </c>
       <c r="W23" s="113">
         <v>6.94396566351225</v>
       </c>
-      <c r="X23" s="110">
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="102" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="78">
+        <v>26.154739571730001</v>
+      </c>
+      <c r="C24" s="109">
+        <v>56.536070580412513</v>
+      </c>
+      <c r="D24" s="109">
+        <v>82.080381423035192</v>
+      </c>
+      <c r="E24" s="109">
+        <v>3.6911874999999998</v>
+      </c>
+      <c r="F24" s="109">
+        <v>6.1445988478875009</v>
+      </c>
+      <c r="G24" s="109">
+        <v>1.8624375</v>
+      </c>
+      <c r="H24" s="109">
+        <v>298.60494266551041</v>
+      </c>
+      <c r="I24" s="109">
+        <v>79.92187573838315</v>
+      </c>
+      <c r="J24" s="109">
+        <v>18.479093913333148</v>
+      </c>
+      <c r="K24" s="109">
+        <v>2.3851168212195879</v>
+      </c>
+      <c r="L24" s="109">
+        <v>8.1323812827027346</v>
+      </c>
+      <c r="M24" s="109">
+        <v>7.973025200010829</v>
+      </c>
+      <c r="N24" s="109">
+        <v>18.524529164824219</v>
+      </c>
+      <c r="O24" s="109">
+        <v>14.827057619669381</v>
+      </c>
+      <c r="P24" s="109">
+        <v>3.6031067861249988</v>
+      </c>
+      <c r="Q24" s="109">
+        <v>11.2366041781594</v>
+      </c>
+      <c r="R24" s="109">
+        <v>4.7788294446622501</v>
+      </c>
+      <c r="S24" s="109">
+        <v>58.401671825100138</v>
+      </c>
+      <c r="T24" s="109">
+        <v>0.23904210000000001</v>
+      </c>
+      <c r="U24" s="109">
+        <v>8.196776615100001</v>
+      </c>
+      <c r="V24" s="109">
+        <v>6.5851318966639614</v>
+      </c>
+      <c r="W24" s="110">
         <v>718.3586006745295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="S32" s="9" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
